--- a/src/main/resources/objectLocator/OR_FASB.xlsx
+++ b/src/main/resources/objectLocator/OR_FASB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSi\Desktop\selemnium1\seleniumTestingFramework\src\main\resources\objectLocator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79125BE-3C49-4115-8E37-44E44871671F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9A74AB-46BE-47B9-8743-7A9CE28EE2C3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIGeneric" sheetId="38" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
   <si>
     <t>panelExportWidgetHeader</t>
   </si>
@@ -151,12 +151,6 @@
     <t>//*[@class='btn btn-primary']</t>
   </si>
   <si>
-    <t>testamt.com</t>
-  </si>
-  <si>
-    <t>testamt.com/Accounts/FASBIASB/Index</t>
-  </si>
-  <si>
     <t>tbarCmdselect_lease</t>
   </si>
   <si>
@@ -172,9 +166,6 @@
     <t>modal-content-lease-filter</t>
   </si>
   <si>
-    <t>/Accounts/FASBIASB*FASB/IASB Revisions</t>
-  </si>
-  <si>
     <t>//*[@class="k-widget k-treeview"]</t>
   </si>
   <si>
@@ -239,6 +230,18 @@
   </si>
   <si>
     <t>//*[@id='BatchHistroy']</t>
+  </si>
+  <si>
+    <t>/Accounts/FASBIASB*FASB/IASB*Revisions</t>
+  </si>
+  <si>
+    <t>*amt*.com/Accounts/FASBIASB/Index</t>
+  </si>
+  <si>
+    <t>*amt*.com</t>
+  </si>
+  <si>
+    <t>Parent</t>
   </si>
 </sst>
 </file>
@@ -1453,10 +1456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,10 +1467,10 @@
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5703125" customWidth="1"/>
     <col min="3" max="3" width="52.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="56.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1477,8 +1480,11 @@
       <c r="C1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1488,8 +1494,9 @@
       <c r="C2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1499,8 +1506,9 @@
       <c r="C3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1510,8 +1518,9 @@
       <c r="C4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -1521,24 +1530,25 @@
       <c r="C5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -1546,10 +1556,10 @@
         <v>37</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
@@ -1557,7 +1567,7 @@
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1583,11 +1593,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1595,9 +1605,10 @@
     <col min="1" max="1" width="43" customWidth="1"/>
     <col min="2" max="2" width="49.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="56.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
@@ -1607,65 +1618,72 @@
       <c r="C1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -1694,11 +1712,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,9 +1725,10 @@
     <col min="2" max="2" width="47" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="56.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1722,160 +1741,167 @@
       <c r="D1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
         <v>37</v>
@@ -2075,11 +2101,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AH4"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2088,6 +2114,7 @@
     <col min="2" max="2" width="47" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="56.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -2103,17 +2130,20 @@
       <c r="D1" t="s">
         <v>31</v>
       </c>
+      <c r="E1" s="14" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="2" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
-      <c r="E2"/>
+      <c r="E2" s="7"/>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
@@ -2149,13 +2179,13 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
         <v>37</v>
       </c>
-      <c r="E3"/>
+      <c r="E3" s="7"/>
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
@@ -2191,11 +2221,15 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
       </c>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="E5" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A4" xr:uid="{00000000-0009-0000-0000-000004000000}"/>

--- a/src/main/resources/objectLocator/OR_FASB.xlsx
+++ b/src/main/resources/objectLocator/OR_FASB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSi\Desktop\selemnium1\seleniumTestingFramework\src\main\resources\objectLocator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9A74AB-46BE-47B9-8743-7A9CE28EE2C3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E7BCB7-46FF-4E2D-9691-39B97A21F994}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIGeneric" sheetId="38" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="169">
   <si>
     <t>panelExportWidgetHeader</t>
   </si>
@@ -242,6 +242,303 @@
   </si>
   <si>
     <t>Parent</t>
+  </si>
+  <si>
+    <t>//*[@id="tbarCmdEdit"]</t>
+  </si>
+  <si>
+    <t>btnEdit</t>
+  </si>
+  <si>
+    <t>panelEditRevision</t>
+  </si>
+  <si>
+    <t>//*[@id="wndEditRevisions"]</t>
+  </si>
+  <si>
+    <t>//*[@id="ResidualValueGuarantee"]</t>
+  </si>
+  <si>
+    <t>txtRVG</t>
+  </si>
+  <si>
+    <t>//*[@id="FMVOfLease"]</t>
+  </si>
+  <si>
+    <t>txtFMV</t>
+  </si>
+  <si>
+    <t>//*[@aria-owns="HasPurchaseOption_listbox"]</t>
+  </si>
+  <si>
+    <t>//*[@aria-owns="IsOwnershipTransferAtEndOfLease_listbox"]</t>
+  </si>
+  <si>
+    <t>//*[@aria-owns="IsNPVMoreThanFMV_listbox"]</t>
+  </si>
+  <si>
+    <t>//*[@aria-owns="IsLeaseEncompassingUsefulLife_listbox"]</t>
+  </si>
+  <si>
+    <t>//*[@aria-owns='IsSpecializedAsset_listbox']</t>
+  </si>
+  <si>
+    <t>//*[@aria-owns='CollectPayment_listbox']</t>
+  </si>
+  <si>
+    <t>question1</t>
+  </si>
+  <si>
+    <t>question2</t>
+  </si>
+  <si>
+    <t>question3</t>
+  </si>
+  <si>
+    <t>question4</t>
+  </si>
+  <si>
+    <t>question5</t>
+  </si>
+  <si>
+    <t>question6</t>
+  </si>
+  <si>
+    <t>//*[@aria-owns='isThirdPartyMoreThanFMV_listbox']</t>
+  </si>
+  <si>
+    <t>question7</t>
+  </si>
+  <si>
+    <t>//*[@aria-owns='FASBClassificationTypeID_listbox']</t>
+  </si>
+  <si>
+    <t>dpLeaseClasification</t>
+  </si>
+  <si>
+    <t>txtUsefulLife</t>
+  </si>
+  <si>
+    <t>//*[@id="UsefulLife"]</t>
+  </si>
+  <si>
+    <t>txtCalender</t>
+  </si>
+  <si>
+    <t>//*[@id="RevisionCalendar"]</t>
+  </si>
+  <si>
+    <t>txtPaymentType</t>
+  </si>
+  <si>
+    <t>//*[@id="RevisionChargeId"]</t>
+  </si>
+  <si>
+    <t>//*[@id="IndexIncluded"]</t>
+  </si>
+  <si>
+    <t>//*[@id="Index_Rate"]</t>
+  </si>
+  <si>
+    <t>txtIndexRate</t>
+  </si>
+  <si>
+    <t>//*[@id="Fixed_Monthly_Index_Rent"]</t>
+  </si>
+  <si>
+    <t>//*[@id="Total_Index_Rent"]</t>
+  </si>
+  <si>
+    <t>txtIndexRent</t>
+  </si>
+  <si>
+    <t>txtMonthlyIndexRent</t>
+  </si>
+  <si>
+    <t>//*[@id="TotalMonthlyAmount"]</t>
+  </si>
+  <si>
+    <t>txtTotalPeriodPayments</t>
+  </si>
+  <si>
+    <t>//*[@id="TotalAmountCapitalized"]</t>
+  </si>
+  <si>
+    <t>txtTotalAmountCapitalize</t>
+  </si>
+  <si>
+    <t>//*[@id="ServiceRentType"]</t>
+  </si>
+  <si>
+    <t>dpServiceRentType</t>
+  </si>
+  <si>
+    <t>//*[@aria-owns="NPVInterestRateId_listbox"]</t>
+  </si>
+  <si>
+    <t>dpInterestRateTerm</t>
+  </si>
+  <si>
+    <t>//*[@id="NPVInterestRateOfInterest"]</t>
+  </si>
+  <si>
+    <t>txtClientInterestRate</t>
+  </si>
+  <si>
+    <t>//*[@id="LeaseLiabilityROUBase"]</t>
+  </si>
+  <si>
+    <t>txtLeaseLiabilityROUBase</t>
+  </si>
+  <si>
+    <t>//*[@id="Prepayment"]</t>
+  </si>
+  <si>
+    <t>txtPrepayment</t>
+  </si>
+  <si>
+    <t>//*[@id="ROU_InitialDirectCosts"]</t>
+  </si>
+  <si>
+    <t>//*[@id="ROU_LandlordAllowance"]</t>
+  </si>
+  <si>
+    <t>//*[@id="ROU_ImpairmentsAsset"]</t>
+  </si>
+  <si>
+    <t>txtROU_InitialDirectCosts</t>
+  </si>
+  <si>
+    <t>txtROU_LandlordAllowance</t>
+  </si>
+  <si>
+    <t>txtROU_ImpairmentsAsset</t>
+  </si>
+  <si>
+    <t>//*[@id="ROU_LeaseIncentive"]</t>
+  </si>
+  <si>
+    <t>//*[@id="ROU_TotalAssetBalance"]</t>
+  </si>
+  <si>
+    <t>txtROU_LeaseIncentive</t>
+  </si>
+  <si>
+    <t>txtROU_TotalAssetBalance</t>
+  </si>
+  <si>
+    <t>cbIncludeIndex</t>
+  </si>
+  <si>
+    <t>cbIndexRate</t>
+  </si>
+  <si>
+    <t>btnAddNew</t>
+  </si>
+  <si>
+    <t>//*[@id="btnAddNew"]</t>
+  </si>
+  <si>
+    <t>btnDelete</t>
+  </si>
+  <si>
+    <t>//*[@id="btnDelete"]</t>
+  </si>
+  <si>
+    <t>buttonDelete</t>
+  </si>
+  <si>
+    <t>//*[@id="buttonDelete"]</t>
+  </si>
+  <si>
+    <t>btnSave</t>
+  </si>
+  <si>
+    <t>//*[@id="btnSave"]</t>
+  </si>
+  <si>
+    <t>btnClose</t>
+  </si>
+  <si>
+    <t>//*[@id="EditRevisionPopUpClose"]</t>
+  </si>
+  <si>
+    <t>txtAccruedBal</t>
+  </si>
+  <si>
+    <t>//*[@id="PreviousRevAccruedBal"]</t>
+  </si>
+  <si>
+    <t>txtW/OAmt</t>
+  </si>
+  <si>
+    <t>//*[@id="Prior_Rev_WO_Amt"]</t>
+  </si>
+  <si>
+    <t>txtAccruedBeginningBalance</t>
+  </si>
+  <si>
+    <t>//*[@id="Prior_Rev_RollOver_Amt"]</t>
+  </si>
+  <si>
+    <t>level_pname</t>
+  </si>
+  <si>
+    <t>//*[@id="aPropName"]</t>
+  </si>
+  <si>
+    <t>level_lname</t>
+  </si>
+  <si>
+    <t>//*[@id="aLeaseName"]</t>
+  </si>
+  <si>
+    <t>level_revisionNumber</t>
+  </si>
+  <si>
+    <t>//*[@id="revisionNumber"]</t>
+  </si>
+  <si>
+    <t>level_RevisionDesc</t>
+  </si>
+  <si>
+    <t>//*[@id="RevisionDesc"]</t>
+  </si>
+  <si>
+    <t>level_RevisionDate</t>
+  </si>
+  <si>
+    <t>//*[@id="RevisionDate"]</t>
+  </si>
+  <si>
+    <t>level_RevAdj13Period</t>
+  </si>
+  <si>
+    <t>//*[@id="RevAdj13Period"]</t>
+  </si>
+  <si>
+    <t>ck_PartialTermination</t>
+  </si>
+  <si>
+    <t>//*[@id="PartialTermination"]</t>
+  </si>
+  <si>
+    <t>level_FASB/IASBStartDate</t>
+  </si>
+  <si>
+    <t>//*[@id="Start"]</t>
+  </si>
+  <si>
+    <t>level_FASB/IASBEndDate</t>
+  </si>
+  <si>
+    <t>//*[@id="End"]</t>
+  </si>
+  <si>
+    <t>level_tdPeriods</t>
+  </si>
+  <si>
+    <t>//*[@id="tdPeriods"]</t>
   </si>
 </sst>
 </file>
@@ -320,7 +617,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -343,11 +640,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -385,41 +693,17 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="79">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="76">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1572,19 +1856,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="78" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="77" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="76" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="75" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="74" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1593,17 +1877,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="2" max="2" width="49.5703125" customWidth="1"/>
+    <col min="2" max="2" width="65" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="56.5703125" customWidth="1"/>
   </cols>
@@ -1689,21 +1973,573 @@
         <v>33</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>167</v>
+      </c>
+      <c r="B58" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A7 A150:A1048576">
-    <cfRule type="duplicateValues" dxfId="73" priority="73"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A7 A150:A1048576">
-    <cfRule type="duplicateValues" dxfId="72" priority="77"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A7 A150:A1048576">
-    <cfRule type="duplicateValues" dxfId="71" priority="79"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A7 A150:A1048576">
-    <cfRule type="duplicateValues" dxfId="70" priority="85"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A150:A1048576 A1:A7">
-    <cfRule type="duplicateValues" dxfId="69" priority="87"/>
+  <conditionalFormatting sqref="A151:A1048576 A1:A34 A37:A38">
+    <cfRule type="duplicateValues" dxfId="70" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A151:A1048576">
+    <cfRule type="duplicateValues" dxfId="69" priority="77"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1716,7 +2552,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2103,7 +2939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>

--- a/src/main/resources/objectLocator/OR_FASB.xlsx
+++ b/src/main/resources/objectLocator/OR_FASB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSi\Desktop\selemnium1\seleniumTestingFramework\src\main\resources\objectLocator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ehsan\AMTPublicRipo\AMT-TestFrameWork\src\main\resources\objectLocator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E7BCB7-46FF-4E2D-9691-39B97A21F994}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189548EB-B875-4FDB-BF48-15A1C6F06FEA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIGeneric" sheetId="38" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="181">
   <si>
     <t>panelExportWidgetHeader</t>
   </si>
@@ -391,18 +391,9 @@
     <t>txtLeaseLiabilityROUBase</t>
   </si>
   <si>
-    <t>//*[@id="Prepayment"]</t>
-  </si>
-  <si>
     <t>txtPrepayment</t>
   </si>
   <si>
-    <t>//*[@id="ROU_InitialDirectCosts"]</t>
-  </si>
-  <si>
-    <t>//*[@id="ROU_LandlordAllowance"]</t>
-  </si>
-  <si>
     <t>//*[@id="ROU_ImpairmentsAsset"]</t>
   </si>
   <si>
@@ -539,6 +530,51 @@
   </si>
   <si>
     <t>//*[@id="tdPeriods"]</t>
+  </si>
+  <si>
+    <t>//*[@id='Prepayment']</t>
+  </si>
+  <si>
+    <t>//*[@id='ROU_InitialDirectCosts']</t>
+  </si>
+  <si>
+    <t>//*[@id='ROU_LandlordAllowance']</t>
+  </si>
+  <si>
+    <t>//*[@id="FASBClassificationTypeID_listbox"]</t>
+  </si>
+  <si>
+    <t>FASBClassificationType</t>
+  </si>
+  <si>
+    <t>FASBClassificationTypeParent</t>
+  </si>
+  <si>
+    <t>//*[@aria-owns="FASBClassificationTypeID_listbox"]</t>
+  </si>
+  <si>
+    <t>//*[@id='Contract_listbox']</t>
+  </si>
+  <si>
+    <t>//*[@id='Category_listbox']</t>
+  </si>
+  <si>
+    <t>//*[@id="cmbChartOfAccount_listbox"]</t>
+  </si>
+  <si>
+    <t>//*[@id="ddlLeaseTypes_listbox"]</t>
+  </si>
+  <si>
+    <t>//*[@id="ddlChartOfAccountTypes_listbox"]</t>
+  </si>
+  <si>
+    <t>//*[@id="ddlMaintainCodeTypes_listbox"]</t>
+  </si>
+  <si>
+    <t>Notes_Description</t>
+  </si>
+  <si>
+    <t>txtNotes</t>
   </si>
 </sst>
 </file>
@@ -1877,22 +1913,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="2" max="2" width="65" customWidth="1"/>
+    <col min="2" max="2" width="57.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="56.5703125" customWidth="1"/>
+    <col min="4" max="4" width="46.140625" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
@@ -1905,8 +1942,11 @@
       <c r="D1" s="14" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -1915,7 +1955,7 @@
       </c>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -1927,7 +1967,7 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -1938,8 +1978,9 @@
         <v>33</v>
       </c>
       <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -1951,7 +1992,7 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>18</v>
       </c>
@@ -1962,7 +2003,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -1973,7 +2014,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>71</v>
       </c>
@@ -1984,7 +2025,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>72</v>
       </c>
@@ -1994,8 +2035,11 @@
       <c r="C9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>75</v>
       </c>
@@ -2005,8 +2049,11 @@
       <c r="C10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>77</v>
       </c>
@@ -2017,7 +2064,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>84</v>
       </c>
@@ -2028,7 +2075,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>85</v>
       </c>
@@ -2038,8 +2085,11 @@
       <c r="C13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>86</v>
       </c>
@@ -2049,8 +2099,11 @@
       <c r="C14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>87</v>
       </c>
@@ -2060,8 +2113,11 @@
       <c r="C15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>88</v>
       </c>
@@ -2070,6 +2126,9 @@
       </c>
       <c r="C16" t="s">
         <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2140,7 +2199,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B23" t="s">
         <v>100</v>
@@ -2250,10 +2309,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="C33" t="s">
         <v>37</v>
@@ -2261,10 +2320,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="C34" t="s">
         <v>37</v>
@@ -2272,10 +2331,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
@@ -2283,10 +2342,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
@@ -2294,10 +2353,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C37" t="s">
         <v>37</v>
@@ -2305,10 +2364,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C38" t="s">
         <v>37</v>
@@ -2316,7 +2375,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B39" t="s">
         <v>100</v>
@@ -2327,7 +2386,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B40" t="s">
         <v>100</v>
@@ -2338,10 +2397,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B41" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C41" t="s">
         <v>37</v>
@@ -2349,10 +2408,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B42" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C42" t="s">
         <v>37</v>
@@ -2360,10 +2419,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B43" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C43" t="s">
         <v>37</v>
@@ -2371,10 +2430,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B44" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C44" t="s">
         <v>37</v>
@@ -2382,10 +2441,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B45" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C45" t="s">
         <v>37</v>
@@ -2393,10 +2452,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B46" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C46" t="s">
         <v>37</v>
@@ -2404,10 +2463,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B47" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C47" t="s">
         <v>37</v>
@@ -2415,123 +2474,159 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" t="s">
         <v>147</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>148</v>
       </c>
-      <c r="C48" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B50" t="s">
         <v>149</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C50" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>150</v>
       </c>
-      <c r="C49" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B51" t="s">
         <v>151</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>152</v>
       </c>
-      <c r="C50" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B52" t="s">
         <v>153</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>154</v>
       </c>
-      <c r="C51" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B53" t="s">
         <v>155</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C53" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>156</v>
       </c>
-      <c r="C52" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B54" t="s">
         <v>157</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C54" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>158</v>
       </c>
-      <c r="C53" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B55" t="s">
         <v>159</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>160</v>
       </c>
-      <c r="C54" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B56" t="s">
         <v>161</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>162</v>
       </c>
-      <c r="C55" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B57" t="s">
         <v>163</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C57" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>164</v>
       </c>
-      <c r="C56" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B58" t="s">
         <v>165</v>
       </c>
-      <c r="B57" t="s">
-        <v>166</v>
-      </c>
-      <c r="C57" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>167</v>
-      </c>
-      <c r="B58" t="s">
-        <v>168</v>
-      </c>
       <c r="C58" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>171</v>
+      </c>
+      <c r="B60" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C61" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/objectLocator/OR_FASB.xlsx
+++ b/src/main/resources/objectLocator/OR_FASB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ehsan\AMTPublicRipo\AMT-TestFrameWork\src\main\resources\objectLocator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189548EB-B875-4FDB-BF48-15A1C6F06FEA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890BD335-3B43-4787-9FE0-5A197E185ADC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIGeneric" sheetId="38" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="187">
   <si>
     <t>panelExportWidgetHeader</t>
   </si>
@@ -469,9 +469,6 @@
     <t>txtAccruedBeginningBalance</t>
   </si>
   <si>
-    <t>//*[@id="Prior_Rev_RollOver_Amt"]</t>
-  </si>
-  <si>
     <t>level_pname</t>
   </si>
   <si>
@@ -575,6 +572,27 @@
   </si>
   <si>
     <t>txtNotes</t>
+  </si>
+  <si>
+    <t>AccruedBeginningBalance</t>
+  </si>
+  <si>
+    <t>FMVOfLease</t>
+  </si>
+  <si>
+    <t>//*[@name="ResidualValueGuarantee"]</t>
+  </si>
+  <si>
+    <t>txtUnguaranteedResidualValue</t>
+  </si>
+  <si>
+    <t>UnguaranteedResidualValue</t>
+  </si>
+  <si>
+    <t>txtCarryingAmountofAssets</t>
+  </si>
+  <si>
+    <t>CarryingAmountofAssets</t>
   </si>
 </sst>
 </file>
@@ -1913,11 +1931,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2036,7 +2054,7 @@
         <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2050,7 +2068,7 @@
         <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2086,7 +2104,7 @@
         <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2100,7 +2118,7 @@
         <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2114,7 +2132,7 @@
         <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2128,7 +2146,7 @@
         <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2312,7 +2330,7 @@
         <v>119</v>
       </c>
       <c r="B33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C33" t="s">
         <v>37</v>
@@ -2323,7 +2341,7 @@
         <v>121</v>
       </c>
       <c r="B34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C34" t="s">
         <v>37</v>
@@ -2334,7 +2352,7 @@
         <v>122</v>
       </c>
       <c r="B35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
@@ -2473,11 +2491,11 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>144</v>
+      <c r="A48" t="s">
+        <v>145</v>
       </c>
       <c r="B48" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C48" t="s">
         <v>37</v>
@@ -2485,10 +2503,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B49" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C49" t="s">
         <v>37</v>
@@ -2496,10 +2514,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B50" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C50" t="s">
         <v>37</v>
@@ -2507,10 +2525,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B51" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C51" t="s">
         <v>37</v>
@@ -2518,10 +2536,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B52" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C52" t="s">
         <v>37</v>
@@ -2529,10 +2547,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B53" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C53" t="s">
         <v>37</v>
@@ -2540,10 +2558,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B54" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C54" t="s">
         <v>37</v>
@@ -2551,10 +2569,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B55" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C55" t="s">
         <v>37</v>
@@ -2562,10 +2580,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B56" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C56" t="s">
         <v>37</v>
@@ -2573,10 +2591,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B57" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C57" t="s">
         <v>37</v>
@@ -2584,13 +2602,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B58" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C58" t="s">
         <v>37</v>
+      </c>
+      <c r="E58" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2598,42 +2619,83 @@
         <v>170</v>
       </c>
       <c r="B59" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C59" t="s">
         <v>37</v>
-      </c>
-      <c r="E59" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>171</v>
-      </c>
-      <c r="B60" t="s">
-        <v>169</v>
+        <v>179</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="C60" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" s="13" t="s">
         <v>180</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>179</v>
       </c>
       <c r="C61" t="s">
         <v>33</v>
       </c>
     </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C63" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>183</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>185</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C65" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A151:A1048576 A1:A34 A37:A38">
+  <conditionalFormatting sqref="A150:A1048576 A1:A34 A37:A38">
     <cfRule type="duplicateValues" dxfId="70" priority="73"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A151:A1048576">
+  <conditionalFormatting sqref="A150:A1048576">
     <cfRule type="duplicateValues" dxfId="69" priority="77"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/objectLocator/OR_FASB.xlsx
+++ b/src/main/resources/objectLocator/OR_FASB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ehsan\AMTPublicRipo\AMT-TestFrameWork\src\main\resources\objectLocator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSi\Desktop\selemnium1\seleniumTestingFramework\src\main\resources\objectLocator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890BD335-3B43-4787-9FE0-5A197E185ADC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26687E65-E52E-4387-B754-C1A95B2306AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="4575" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIGeneric" sheetId="38" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="219">
   <si>
     <t>panelExportWidgetHeader</t>
   </si>
@@ -593,6 +593,102 @@
   </si>
   <si>
     <t>CarryingAmountofAssets</t>
+  </si>
+  <si>
+    <t>txtFMVOfLeasePercentage</t>
+  </si>
+  <si>
+    <t>//*[@id="FMVOfLeasePercentage"]</t>
+  </si>
+  <si>
+    <t>txtUsefulLifePercentage</t>
+  </si>
+  <si>
+    <t>//*[@id="UsefulLifePercentage"]</t>
+  </si>
+  <si>
+    <t>txtFMVPercentIncome</t>
+  </si>
+  <si>
+    <t>//*[@id="FMVPercent_Income"]</t>
+  </si>
+  <si>
+    <t>btnAddRevision</t>
+  </si>
+  <si>
+    <t>//*[@id="tbarCmdAdd"]</t>
+  </si>
+  <si>
+    <t>dpPaymentType</t>
+  </si>
+  <si>
+    <t>//*[@aria-owns='RevisionChargeId_listbox']</t>
+  </si>
+  <si>
+    <t>//*[@id="RevisionChargeId-list"]</t>
+  </si>
+  <si>
+    <t>btnSaveAddRevision</t>
+  </si>
+  <si>
+    <t>txtInterestRate</t>
+  </si>
+  <si>
+    <t>//*[@id="InterestRate"]</t>
+  </si>
+  <si>
+    <t>txtNPVPayment</t>
+  </si>
+  <si>
+    <t>//*[@id="NPVPayment"]</t>
+  </si>
+  <si>
+    <t>dateAdjPeriodDate</t>
+  </si>
+  <si>
+    <t>//*[@id="AdjPeriodDate"]</t>
+  </si>
+  <si>
+    <t>//*[@id="AccruedBeginningBalance"]</t>
+  </si>
+  <si>
+    <t>txtFASBTerm</t>
+  </si>
+  <si>
+    <t>//*[@id="FASBTerm"]</t>
+  </si>
+  <si>
+    <t>txtSpaceName</t>
+  </si>
+  <si>
+    <t>/../following-sibling::td[1]</t>
+  </si>
+  <si>
+    <t>txtSpaceStartDate</t>
+  </si>
+  <si>
+    <t>/../following-sibling::td[2]</t>
+  </si>
+  <si>
+    <t>txtSpaceEndDate</t>
+  </si>
+  <si>
+    <t>/../following-sibling::td[3]</t>
+  </si>
+  <si>
+    <t>txtThirdPartyResidualValueGuarantee</t>
+  </si>
+  <si>
+    <t>//*[@id="ThirdPartyResidualValueGuarantee"]</t>
+  </si>
+  <si>
+    <t>txtLesseeResidualValueGuarantee</t>
+  </si>
+  <si>
+    <t>//*[@id="LesseeResidualValueGuarantee"]</t>
+  </si>
+  <si>
+    <t>txtTotalIndexRent</t>
   </si>
 </sst>
 </file>
@@ -757,7 +853,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="77">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1910,19 +2016,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="75" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="74" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="73" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="72" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="71" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1931,11 +2037,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A82" sqref="A82:XFD82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2491,11 +2597,11 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>145</v>
+      <c r="A48" s="13" t="s">
+        <v>144</v>
       </c>
       <c r="B48" t="s">
-        <v>146</v>
+        <v>205</v>
       </c>
       <c r="C48" t="s">
         <v>37</v>
@@ -2503,10 +2609,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C49" t="s">
         <v>37</v>
@@ -2514,10 +2620,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B50" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C50" t="s">
         <v>37</v>
@@ -2525,10 +2631,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B51" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C51" t="s">
         <v>37</v>
@@ -2536,10 +2642,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B52" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C52" t="s">
         <v>37</v>
@@ -2547,10 +2653,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B53" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C53" t="s">
         <v>37</v>
@@ -2558,10 +2664,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B54" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C54" t="s">
         <v>37</v>
@@ -2569,10 +2675,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B55" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C55" t="s">
         <v>37</v>
@@ -2580,10 +2686,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B56" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C56" t="s">
         <v>37</v>
@@ -2591,10 +2697,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B57" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C57" t="s">
         <v>37</v>
@@ -2602,46 +2708,46 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B58" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C58" t="s">
         <v>37</v>
-      </c>
-      <c r="E58" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B59" t="s">
+        <v>171</v>
+      </c>
+      <c r="C59" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" t="s">
         <v>168</v>
-      </c>
-      <c r="C59" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>179</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>178</v>
+        <v>170</v>
+      </c>
+      <c r="B60" t="s">
+        <v>168</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C61" t="s">
         <v>33</v>
@@ -2649,10 +2755,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C62" t="s">
         <v>33</v>
@@ -2660,43 +2766,245 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C63" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C64" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>183</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B65" s="13" t="s">
         <v>184</v>
-      </c>
-      <c r="C64" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>185</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>186</v>
       </c>
       <c r="C65" t="s">
         <v>33</v>
       </c>
     </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>185</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>187</v>
+      </c>
+      <c r="B67" t="s">
+        <v>188</v>
+      </c>
+      <c r="C67" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>189</v>
+      </c>
+      <c r="B68" t="s">
+        <v>190</v>
+      </c>
+      <c r="C68" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>191</v>
+      </c>
+      <c r="B69" t="s">
+        <v>192</v>
+      </c>
+      <c r="C69" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>193</v>
+      </c>
+      <c r="B70" t="s">
+        <v>194</v>
+      </c>
+      <c r="C70" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>195</v>
+      </c>
+      <c r="B71" t="s">
+        <v>196</v>
+      </c>
+      <c r="C71" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>198</v>
+      </c>
+      <c r="B72" t="s">
+        <v>137</v>
+      </c>
+      <c r="C72" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>199</v>
+      </c>
+      <c r="B73" t="s">
+        <v>200</v>
+      </c>
+      <c r="C73" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>201</v>
+      </c>
+      <c r="B74" t="s">
+        <v>202</v>
+      </c>
+      <c r="C74" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>203</v>
+      </c>
+      <c r="B75" t="s">
+        <v>204</v>
+      </c>
+      <c r="C75" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>206</v>
+      </c>
+      <c r="B76" t="s">
+        <v>207</v>
+      </c>
+      <c r="C76" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>208</v>
+      </c>
+      <c r="B77" t="s">
+        <v>209</v>
+      </c>
+      <c r="C77" t="s">
+        <v>37</v>
+      </c>
+      <c r="D77" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>210</v>
+      </c>
+      <c r="B78" t="s">
+        <v>211</v>
+      </c>
+      <c r="C78" t="s">
+        <v>37</v>
+      </c>
+      <c r="D78" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>212</v>
+      </c>
+      <c r="B79" t="s">
+        <v>213</v>
+      </c>
+      <c r="C79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D79" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>214</v>
+      </c>
+      <c r="B80" t="s">
+        <v>215</v>
+      </c>
+      <c r="C80" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>216</v>
+      </c>
+      <c r="B81" t="s">
+        <v>217</v>
+      </c>
+      <c r="C81" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B82" t="s">
+        <v>104</v>
+      </c>
+      <c r="C82" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A150:A1048576 A1:A34 A37:A38">
-    <cfRule type="duplicateValues" dxfId="70" priority="73"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A150:A1048576">
-    <cfRule type="duplicateValues" dxfId="69" priority="77"/>
+  <conditionalFormatting sqref="A151:A1048576 A1:A34 A37:A38">
+    <cfRule type="duplicateValues" dxfId="71" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A151:A1048576">
+    <cfRule type="duplicateValues" dxfId="70" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2902,190 +3210,190 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:A1048576 A2 A7">
-    <cfRule type="duplicateValues" dxfId="68" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A1048576">
-    <cfRule type="duplicateValues" dxfId="67" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A1048576">
-    <cfRule type="duplicateValues" dxfId="66" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A1048576">
-    <cfRule type="duplicateValues" dxfId="65" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A1048576">
-    <cfRule type="duplicateValues" dxfId="64" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="63" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="62" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="61" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="60" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="59" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="58" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="57" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="56" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="55" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="54" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="53" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="52" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="51" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="50" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="49" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="48" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="47" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="46" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="45" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="44" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="43" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="42" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="41" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="40" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="39" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="38" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="37" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="36" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="35" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="34" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="33" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="32" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="31" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="30" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="29" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="28" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="27" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="26" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="25" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="24" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="23" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="22" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="21" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="20" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="19" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="18" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="16" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="14" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3227,25 +3535,25 @@
   </sheetData>
   <autoFilter ref="A1:A4" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="6" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="5" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="4" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="3" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A1048576 A1:A3">
-    <cfRule type="duplicateValues" dxfId="2" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/src/main/resources/objectLocator/OR_FASB.xlsx
+++ b/src/main/resources/objectLocator/OR_FASB.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSi\Desktop\selemnium1\seleniumTestingFramework\src\main\resources\objectLocator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSI\AMTAutomationRipo\AMT-TestFrameWork\src\main\resources\objectLocator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26687E65-E52E-4387-B754-C1A95B2306AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4575" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="5025" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FIGeneric" sheetId="38" r:id="rId1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="221">
   <si>
     <t>panelExportWidgetHeader</t>
   </si>
@@ -689,12 +688,18 @@
   </si>
   <si>
     <t>txtTotalIndexRent</t>
+  </si>
+  <si>
+    <t>dpSpace</t>
+  </si>
+  <si>
+    <t>//*[@aria-owns='RevisionSuiteIndexId_listbox']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1899,7 +1904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2036,12 +2041,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A82" sqref="A82:XFD82"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2974,7 +2979,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>216</v>
       </c>
@@ -2985,7 +2990,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
         <v>218</v>
       </c>
@@ -2994,6 +2999,20 @@
       </c>
       <c r="C82" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>219</v>
+      </c>
+      <c r="B83" t="s">
+        <v>220</v>
+      </c>
+      <c r="C83" t="s">
+        <v>37</v>
+      </c>
+      <c r="E83" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -3004,7 +3023,7 @@
     <cfRule type="duplicateValues" dxfId="70" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3012,7 +3031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3210,190 +3229,190 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:A1048576 A2 A7">
-    <cfRule type="duplicateValues" dxfId="69" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A1048576">
-    <cfRule type="duplicateValues" dxfId="68" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A1048576">
-    <cfRule type="duplicateValues" dxfId="67" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A1048576">
-    <cfRule type="duplicateValues" dxfId="66" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A1048576">
-    <cfRule type="duplicateValues" dxfId="65" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="64" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="63" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="62" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="61" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="60" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="59" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="58" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="57" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="56" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="55" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="54" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="53" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="52" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="51" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="50" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="49" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="48" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="47" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="46" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="45" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="44" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="43" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="42" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="41" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="40" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="39" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="38" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="37" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="36" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="35" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="34" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="33" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="32" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="31" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="30" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="29" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="28" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="27" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="26" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="25" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="24" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="23" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="22" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="21" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="20" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="17" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="12" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3401,12 +3420,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3533,27 +3552,27 @@
       <c r="E5" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A4" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:A4"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="7" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="6" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="5" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="4" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A1048576 A1:A3">
-    <cfRule type="duplicateValues" dxfId="3" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="72"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/src/main/resources/objectLocator/OR_FASB.xlsx
+++ b/src/main/resources/objectLocator/OR_FASB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="5025" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="5475" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FIGeneric" sheetId="38" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BatchHistory!$A$1:$A$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FIRevisions!$A$1:$A$7</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="223">
   <si>
     <t>panelExportWidgetHeader</t>
   </si>
@@ -694,6 +694,12 @@
   </si>
   <si>
     <t>//*[@aria-owns='RevisionSuiteIndexId_listbox']</t>
+  </si>
+  <si>
+    <t>txtRentableLease</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'RENTABLE_SQFT')]</t>
   </si>
 </sst>
 </file>
@@ -2042,11 +2048,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E93" sqref="E93"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3013,6 +3019,17 @@
       </c>
       <c r="E83" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>221</v>
+      </c>
+      <c r="B84" t="s">
+        <v>222</v>
+      </c>
+      <c r="C84" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/objectLocator/OR_FASB.xlsx
+++ b/src/main/resources/objectLocator/OR_FASB.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSI\AMTAutomationRipo\AMT-TestFrameWork\src\main\resources\objectLocator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asif/Documents/AMT/AMT-TestFrameWork/src/main/resources/objectLocator/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566C9AE7-9CED-B941-926E-6EDB95F071E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="5475" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIGeneric" sheetId="38" r:id="rId1"/>
-    <sheet name="FIRevisions" sheetId="32" r:id="rId2"/>
-    <sheet name="FIProcess" sheetId="20" r:id="rId3"/>
-    <sheet name="BatchHistory" sheetId="8" r:id="rId4"/>
+    <sheet name="FIProcess" sheetId="20" r:id="rId2"/>
+    <sheet name="BatchHistory" sheetId="8" r:id="rId3"/>
+    <sheet name="FIRevisions" sheetId="32" r:id="rId4"/>
+    <sheet name="FISchedule" sheetId="39" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BatchHistory!$A$1:$A$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FIRevisions!$A$1:$A$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">BatchHistory!$A$1:$A$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">FIRevisions!$A$1:$A$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">FISchedule!$A$1:$A$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="254">
   <si>
     <t>panelExportWidgetHeader</t>
   </si>
@@ -700,13 +703,119 @@
   </si>
   <si>
     <t>//*[contains(@id,'RENTABLE_SQFT')]</t>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>roperty</t>
+    </r>
+  </si>
+  <si>
+    <t>PropertyValue</t>
+  </si>
+  <si>
+    <t>LeaseName</t>
+  </si>
+  <si>
+    <t>LeaseNameValue</t>
+  </si>
+  <si>
+    <t>FIBeginDate</t>
+  </si>
+  <si>
+    <t>FIEndDate</t>
+  </si>
+  <si>
+    <t>NumberOfPeriods</t>
+  </si>
+  <si>
+    <t>NPVInterestRate</t>
+  </si>
+  <si>
+    <t>ImputedInterestRate</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>DisplayValue</t>
+  </si>
+  <si>
+    <t>DisplayLongTermLiabilities</t>
+  </si>
+  <si>
+    <t>DisplayLongTermLiabilitiesCheckbox</t>
+  </si>
+  <si>
+    <t>CalenderMethod</t>
+  </si>
+  <si>
+    <t>CalenderMethodValue</t>
+  </si>
+  <si>
+    <t>SelectLease</t>
+  </si>
+  <si>
+    <t>//*[td="Property"]/following-sibling:://*[@id="propName"]/</t>
+  </si>
+  <si>
+    <t>//*[@id="propName"]/</t>
+  </si>
+  <si>
+    <t>//*[td="Lease Name"]/following-sibling:://*[@id="leaseName"]/</t>
+  </si>
+  <si>
+    <t>//*[@id="leaseName"]/</t>
+  </si>
+  <si>
+    <t>//*[td="FASB/IASB Begin Date"]/following-sibling:://*[@id="fasbBeginDate"]/</t>
+  </si>
+  <si>
+    <t>//*[@id="fasbBeginDate"]/</t>
+  </si>
+  <si>
+    <t>FIBeginDateValue</t>
+  </si>
+  <si>
+    <t>FIEndDateValue</t>
+  </si>
+  <si>
+    <t>FASB/IASB End Date</t>
+  </si>
+  <si>
+    <t>fasbEndDate</t>
+  </si>
+  <si>
+    <t>//*[td="FASB/IASB End Date"]/following-sibling:://*[@id="fasbEndDate"]/</t>
+  </si>
+  <si>
+    <t>//*[@id="fasbEndDate"]/</t>
+  </si>
+  <si>
+    <t>NPVInterestRateValue</t>
+  </si>
+  <si>
+    <t>ImputedInterestRateValue</t>
+  </si>
+  <si>
+    <t>NumberOfPeriodsValue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -743,6 +852,26 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Menlo"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -816,7 +945,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -860,11 +989,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="77">
+  <dxfs count="81">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1910,22 +2081,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" customWidth="1"/>
-    <col min="3" max="3" width="52.85546875" customWidth="1"/>
-    <col min="4" max="4" width="56.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="52.83203125" customWidth="1"/>
+    <col min="4" max="4" width="56.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1939,7 +2110,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1951,7 +2122,7 @@
       </c>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1963,7 +2134,7 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1975,7 +2146,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -1987,7 +2158,7 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
@@ -1995,7 +2166,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
@@ -2003,7 +2174,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -2014,7 +2185,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
@@ -2027,19 +2198,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="76" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="75" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="74" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="73" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="72" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2047,1000 +2218,388 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="2" max="2" width="57.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="46.140625" customWidth="1"/>
-    <col min="5" max="5" width="42.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="47" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="56.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>9</v>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>42</v>
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>71</v>
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>72</v>
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>75</v>
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>77</v>
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>84</v>
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>85</v>
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>86</v>
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B31" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="B33" t="s">
-        <v>165</v>
-      </c>
-      <c r="C33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B34" t="s">
-        <v>166</v>
-      </c>
-      <c r="C34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="B35" t="s">
-        <v>167</v>
-      </c>
-      <c r="C35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B36" t="s">
-        <v>120</v>
-      </c>
-      <c r="C36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="B37" t="s">
-        <v>124</v>
-      </c>
-      <c r="C37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B38" t="s">
-        <v>125</v>
-      </c>
-      <c r="C38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>128</v>
-      </c>
-      <c r="B39" t="s">
-        <v>100</v>
-      </c>
-      <c r="C39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>129</v>
-      </c>
-      <c r="B40" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="B41" t="s">
-        <v>131</v>
-      </c>
-      <c r="C41" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="B42" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="B43" t="s">
-        <v>135</v>
-      </c>
-      <c r="C43" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>136</v>
-      </c>
-      <c r="B44" t="s">
-        <v>137</v>
-      </c>
-      <c r="C44" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B45" t="s">
-        <v>139</v>
-      </c>
-      <c r="C45" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="B46" t="s">
-        <v>141</v>
-      </c>
-      <c r="C46" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="B47" t="s">
-        <v>143</v>
-      </c>
-      <c r="C47" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B48" t="s">
-        <v>205</v>
-      </c>
-      <c r="C48" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>145</v>
-      </c>
-      <c r="B49" t="s">
-        <v>146</v>
-      </c>
-      <c r="C49" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>147</v>
-      </c>
-      <c r="B50" t="s">
-        <v>148</v>
-      </c>
-      <c r="C50" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>149</v>
-      </c>
-      <c r="B51" t="s">
-        <v>150</v>
-      </c>
-      <c r="C51" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>151</v>
-      </c>
-      <c r="B52" t="s">
-        <v>152</v>
-      </c>
-      <c r="C52" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>153</v>
-      </c>
-      <c r="B53" t="s">
-        <v>154</v>
-      </c>
-      <c r="C53" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>155</v>
-      </c>
-      <c r="B54" t="s">
-        <v>156</v>
-      </c>
-      <c r="C54" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>157</v>
-      </c>
-      <c r="B55" t="s">
-        <v>158</v>
-      </c>
-      <c r="C55" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>159</v>
-      </c>
-      <c r="B56" t="s">
-        <v>160</v>
-      </c>
-      <c r="C56" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>161</v>
-      </c>
-      <c r="B57" t="s">
-        <v>162</v>
-      </c>
-      <c r="C57" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>163</v>
-      </c>
-      <c r="B58" t="s">
-        <v>164</v>
-      </c>
-      <c r="C58" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>169</v>
-      </c>
-      <c r="B59" t="s">
-        <v>171</v>
-      </c>
-      <c r="C59" t="s">
-        <v>37</v>
-      </c>
-      <c r="E59" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>170</v>
-      </c>
-      <c r="B60" t="s">
-        <v>168</v>
-      </c>
-      <c r="C60" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>179</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="C61" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>144</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="C62" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>77</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="C63" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>75</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="C64" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>183</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C65" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>185</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="C66" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>187</v>
-      </c>
-      <c r="B67" t="s">
-        <v>188</v>
-      </c>
-      <c r="C67" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>189</v>
-      </c>
-      <c r="B68" t="s">
-        <v>190</v>
-      </c>
-      <c r="C68" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>191</v>
-      </c>
-      <c r="B69" t="s">
-        <v>192</v>
-      </c>
-      <c r="C69" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>193</v>
-      </c>
-      <c r="B70" t="s">
-        <v>194</v>
-      </c>
-      <c r="C70" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>195</v>
-      </c>
-      <c r="B71" t="s">
-        <v>196</v>
-      </c>
-      <c r="C71" t="s">
-        <v>37</v>
-      </c>
-      <c r="E71" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>198</v>
-      </c>
-      <c r="B72" t="s">
-        <v>137</v>
-      </c>
-      <c r="C72" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>199</v>
-      </c>
-      <c r="B73" t="s">
-        <v>200</v>
-      </c>
-      <c r="C73" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>201</v>
-      </c>
-      <c r="B74" t="s">
-        <v>202</v>
-      </c>
-      <c r="C74" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>203</v>
-      </c>
-      <c r="B75" t="s">
-        <v>204</v>
-      </c>
-      <c r="C75" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>206</v>
-      </c>
-      <c r="B76" t="s">
-        <v>207</v>
-      </c>
-      <c r="C76" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>208</v>
-      </c>
-      <c r="B77" t="s">
-        <v>209</v>
-      </c>
-      <c r="C77" t="s">
-        <v>37</v>
-      </c>
-      <c r="D77" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>210</v>
-      </c>
-      <c r="B78" t="s">
-        <v>211</v>
-      </c>
-      <c r="C78" t="s">
-        <v>37</v>
-      </c>
-      <c r="D78" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>212</v>
-      </c>
-      <c r="B79" t="s">
-        <v>213</v>
-      </c>
-      <c r="C79" t="s">
-        <v>37</v>
-      </c>
-      <c r="D79" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>214</v>
-      </c>
-      <c r="B80" t="s">
-        <v>215</v>
-      </c>
-      <c r="C80" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>216</v>
-      </c>
-      <c r="B81" t="s">
-        <v>217</v>
-      </c>
-      <c r="C81" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="B82" t="s">
-        <v>104</v>
-      </c>
-      <c r="C82" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>219</v>
-      </c>
-      <c r="B83" t="s">
-        <v>220</v>
-      </c>
-      <c r="C83" t="s">
-        <v>37</v>
-      </c>
-      <c r="E83" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>221</v>
-      </c>
-      <c r="B84" t="s">
-        <v>222</v>
-      </c>
-      <c r="C84" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A151:A1048576 A1:A34 A37:A38">
-    <cfRule type="duplicateValues" dxfId="71" priority="74"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A151:A1048576">
-    <cfRule type="duplicateValues" dxfId="70" priority="78"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82">
-    <cfRule type="duplicateValues" dxfId="69" priority="1"/>
+  <conditionalFormatting sqref="A15:A1048576 A2 A7">
+    <cfRule type="duplicateValues" dxfId="75" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:A1048576">
+    <cfRule type="duplicateValues" dxfId="74" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:A1048576">
+    <cfRule type="duplicateValues" dxfId="73" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:A1048576">
+    <cfRule type="duplicateValues" dxfId="72" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:A1048576">
+    <cfRule type="duplicateValues" dxfId="71" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="70" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="69" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="68" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="67" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="66" priority="53"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="65" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="64" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="63" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="62" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="61" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="duplicateValues" dxfId="60" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="duplicateValues" dxfId="59" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="duplicateValues" dxfId="58" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="duplicateValues" dxfId="57" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="duplicateValues" dxfId="56" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="55" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="54" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="53" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="52" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="51" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="50" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="49" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="48" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="47" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="46" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="45" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="44" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="43" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="42" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="41" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="duplicateValues" dxfId="40" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="duplicateValues" dxfId="39" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="duplicateValues" dxfId="38" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="duplicateValues" dxfId="37" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="duplicateValues" dxfId="36" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="duplicateValues" dxfId="35" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="duplicateValues" dxfId="34" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="duplicateValues" dxfId="33" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="duplicateValues" dxfId="32" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="duplicateValues" dxfId="31" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="duplicateValues" dxfId="30" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="duplicateValues" dxfId="29" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="duplicateValues" dxfId="28" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="duplicateValues" dxfId="27" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="duplicateValues" dxfId="26" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="25" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="24" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="23" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="22" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="duplicateValues" dxfId="21" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="duplicateValues" dxfId="20" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="duplicateValues" dxfId="17" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3048,413 +2607,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="56.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A15:A1048576 A2 A7">
-    <cfRule type="duplicateValues" dxfId="68" priority="65"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A1048576">
-    <cfRule type="duplicateValues" dxfId="67" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A1048576">
-    <cfRule type="duplicateValues" dxfId="66" priority="63"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A1048576">
-    <cfRule type="duplicateValues" dxfId="65" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A1048576">
-    <cfRule type="duplicateValues" dxfId="64" priority="61"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="63" priority="57"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="62" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="61" priority="55"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="60" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="59" priority="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="58" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="57" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="56" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="55" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="54" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="53" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="52" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="51" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="50" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="49" priority="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="48" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="47" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="46" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="45" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="44" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="43" priority="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="42" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="41" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="40" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="39" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="38" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="37" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="36" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="35" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="34" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="33" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="32" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="31" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="30" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="29" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="28" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="27" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="26" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="25" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="24" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="23" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="22" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="21" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="20" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="19" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="18" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="16" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="14" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="56.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="56.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3471,7 +2641,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3511,7 +2681,7 @@
       <c r="AG2"/>
       <c r="AH2"/>
     </row>
-    <row r="3" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -3553,7 +2723,7 @@
       <c r="AG3"/>
       <c r="AH3"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -3565,33 +2735,1396 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="E5" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A4"/>
+  <autoFilter ref="A1:A4" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="6" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="5" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="4" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="3" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A1048576 A1:A3">
-    <cfRule type="duplicateValues" dxfId="2" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="72"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E84"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43" customWidth="1"/>
+    <col min="2" max="2" width="57.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="46.1640625" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>151</v>
+      </c>
+      <c r="B52" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>153</v>
+      </c>
+      <c r="B53" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>157</v>
+      </c>
+      <c r="B55" t="s">
+        <v>158</v>
+      </c>
+      <c r="C55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>161</v>
+      </c>
+      <c r="B57" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>163</v>
+      </c>
+      <c r="B58" t="s">
+        <v>164</v>
+      </c>
+      <c r="C58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" t="s">
+        <v>171</v>
+      </c>
+      <c r="C59" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>170</v>
+      </c>
+      <c r="B60" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>179</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>144</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C62" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C64" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>183</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C65" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>185</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>187</v>
+      </c>
+      <c r="B67" t="s">
+        <v>188</v>
+      </c>
+      <c r="C67" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>189</v>
+      </c>
+      <c r="B68" t="s">
+        <v>190</v>
+      </c>
+      <c r="C68" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>191</v>
+      </c>
+      <c r="B69" t="s">
+        <v>192</v>
+      </c>
+      <c r="C69" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>193</v>
+      </c>
+      <c r="B70" t="s">
+        <v>194</v>
+      </c>
+      <c r="C70" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>195</v>
+      </c>
+      <c r="B71" t="s">
+        <v>196</v>
+      </c>
+      <c r="C71" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>198</v>
+      </c>
+      <c r="B72" t="s">
+        <v>137</v>
+      </c>
+      <c r="C72" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>199</v>
+      </c>
+      <c r="B73" t="s">
+        <v>200</v>
+      </c>
+      <c r="C73" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>201</v>
+      </c>
+      <c r="B74" t="s">
+        <v>202</v>
+      </c>
+      <c r="C74" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>203</v>
+      </c>
+      <c r="B75" t="s">
+        <v>204</v>
+      </c>
+      <c r="C75" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>206</v>
+      </c>
+      <c r="B76" t="s">
+        <v>207</v>
+      </c>
+      <c r="C76" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>208</v>
+      </c>
+      <c r="B77" t="s">
+        <v>209</v>
+      </c>
+      <c r="C77" t="s">
+        <v>37</v>
+      </c>
+      <c r="D77" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>210</v>
+      </c>
+      <c r="B78" t="s">
+        <v>211</v>
+      </c>
+      <c r="C78" t="s">
+        <v>37</v>
+      </c>
+      <c r="D78" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>212</v>
+      </c>
+      <c r="B79" t="s">
+        <v>213</v>
+      </c>
+      <c r="C79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D79" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>214</v>
+      </c>
+      <c r="B80" t="s">
+        <v>215</v>
+      </c>
+      <c r="C80" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>216</v>
+      </c>
+      <c r="B81" t="s">
+        <v>217</v>
+      </c>
+      <c r="C81" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B82" t="s">
+        <v>104</v>
+      </c>
+      <c r="C82" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>219</v>
+      </c>
+      <c r="B83" t="s">
+        <v>220</v>
+      </c>
+      <c r="C83" t="s">
+        <v>37</v>
+      </c>
+      <c r="E83" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>221</v>
+      </c>
+      <c r="B84" t="s">
+        <v>222</v>
+      </c>
+      <c r="C84" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A151:A1048576 A1:A34 A37:A38">
+    <cfRule type="duplicateValues" dxfId="6" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A151:A1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4093F9D6-DA39-724D-873F-B6ECFD1D3CAF}">
+  <dimension ref="A1:E93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43" customWidth="1"/>
+    <col min="2" max="2" width="61.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="46.1640625" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+    </row>
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B28" s="18"/>
+    </row>
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="15"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="15"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="15"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="15"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="15"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="15"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="15"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="15"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="15"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="15"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="16"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="16"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="16"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="16"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="13"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="13"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="13"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="13"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="13"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="13"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="13"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B70" s="13"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B71" s="13"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B72" s="13"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B73" s="13"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B74" s="13"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B75" s="13"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="15"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A162:A1048576 A48:A49 A1:A19 A21:A45">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A162:A1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A93">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/objectLocator/OR_FASB.xlsx
+++ b/src/main/resources/objectLocator/OR_FASB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asif/Documents/AMT/AMT-TestFrameWork/src/main/resources/objectLocator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566C9AE7-9CED-B941-926E-6EDB95F071E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F5AF77-F0D4-344D-90F3-68C2BE2D16E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">BatchHistory!$A$1:$A$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">FIRevisions!$A$1:$A$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">FISchedule!$A$1:$A$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">FISchedule!$A$1:$A$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="276">
   <si>
     <t>panelExportWidgetHeader</t>
   </si>
@@ -703,6 +703,63 @@
   </si>
   <si>
     <t>//*[contains(@id,'RENTABLE_SQFT')]</t>
+  </si>
+  <si>
+    <t>PropertyValue</t>
+  </si>
+  <si>
+    <t>LeaseName</t>
+  </si>
+  <si>
+    <t>LeaseNameValue</t>
+  </si>
+  <si>
+    <t>FIBeginDate</t>
+  </si>
+  <si>
+    <t>FIEndDate</t>
+  </si>
+  <si>
+    <t>NumberOfPeriods</t>
+  </si>
+  <si>
+    <t>NPVInterestRate</t>
+  </si>
+  <si>
+    <t>ImputedInterestRate</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>DisplayLongTermLiabilities</t>
+  </si>
+  <si>
+    <t>DisplayLongTermLiabilitiesCheckbox</t>
+  </si>
+  <si>
+    <t>CalenderMethod</t>
+  </si>
+  <si>
+    <t>CalenderMethodValue</t>
+  </si>
+  <si>
+    <t>SelectLease</t>
+  </si>
+  <si>
+    <t>FIBeginDateValue</t>
+  </si>
+  <si>
+    <t>FIEndDateValue</t>
+  </si>
+  <si>
+    <t>NPVInterestRateValue</t>
+  </si>
+  <si>
+    <t>ImputedInterestRateValue</t>
+  </si>
+  <si>
+    <t>NumberOfPeriodsValue</t>
   </si>
   <si>
     <r>
@@ -712,7 +769,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -721,101 +778,110 @@
     </r>
   </si>
   <si>
-    <t>PropertyValue</t>
-  </si>
-  <si>
-    <t>LeaseName</t>
-  </si>
-  <si>
-    <t>LeaseNameValue</t>
-  </si>
-  <si>
-    <t>FIBeginDate</t>
-  </si>
-  <si>
-    <t>FIEndDate</t>
-  </si>
-  <si>
-    <t>NumberOfPeriods</t>
-  </si>
-  <si>
-    <t>NPVInterestRate</t>
-  </si>
-  <si>
-    <t>ImputedInterestRate</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>DisplayValue</t>
-  </si>
-  <si>
-    <t>DisplayLongTermLiabilities</t>
-  </si>
-  <si>
-    <t>DisplayLongTermLiabilitiesCheckbox</t>
-  </si>
-  <si>
-    <t>CalenderMethod</t>
-  </si>
-  <si>
-    <t>CalenderMethodValue</t>
-  </si>
-  <si>
-    <t>SelectLease</t>
-  </si>
-  <si>
-    <t>//*[td="Property"]/following-sibling:://*[@id="propName"]/</t>
-  </si>
-  <si>
-    <t>//*[@id="propName"]/</t>
-  </si>
-  <si>
-    <t>//*[td="Lease Name"]/following-sibling:://*[@id="leaseName"]/</t>
-  </si>
-  <si>
-    <t>//*[@id="leaseName"]/</t>
-  </si>
-  <si>
-    <t>//*[td="FASB/IASB Begin Date"]/following-sibling:://*[@id="fasbBeginDate"]/</t>
-  </si>
-  <si>
-    <t>//*[@id="fasbBeginDate"]/</t>
-  </si>
-  <si>
-    <t>FIBeginDateValue</t>
-  </si>
-  <si>
-    <t>FIEndDateValue</t>
-  </si>
-  <si>
-    <t>FASB/IASB End Date</t>
-  </si>
-  <si>
-    <t>fasbEndDate</t>
-  </si>
-  <si>
-    <t>//*[td="FASB/IASB End Date"]/following-sibling:://*[@id="fasbEndDate"]/</t>
-  </si>
-  <si>
-    <t>//*[@id="fasbEndDate"]/</t>
-  </si>
-  <si>
-    <t>NPVInterestRateValue</t>
-  </si>
-  <si>
-    <t>ImputedInterestRateValue</t>
-  </si>
-  <si>
-    <t>NumberOfPeriodsValue</t>
+    <t>//*[td="Display"]</t>
+  </si>
+  <si>
+    <t>DisplayCheckList</t>
+  </si>
+  <si>
+    <t>//*[@aria-owns='DisplayType_listbox']</t>
+  </si>
+  <si>
+    <t>//*[@id="DisplayType_listbox"]/</t>
+  </si>
+  <si>
+    <t>ScheduleList</t>
+  </si>
+  <si>
+    <t>ScheduleTable</t>
+  </si>
+  <si>
+    <t>//*[td="FASB - Operating"]</t>
+  </si>
+  <si>
+    <t>SelectFASBoperatingLease</t>
+  </si>
+  <si>
+    <t>btn btn-default btn-sm</t>
+  </si>
+  <si>
+    <t>k-textbox</t>
+  </si>
+  <si>
+    <t>//*[@class="btn btn-default btn-sm"]/following-sibling:://*[@class="k-textbox"]/</t>
+  </si>
+  <si>
+    <t>//*[@class="btn btn-default btn-sm"]</t>
+  </si>
+  <si>
+    <t>LeaseTableSearchButton</t>
+  </si>
+  <si>
+    <t>//input[contains(//*[@id="txtfilter"], ‘Search’)]</t>
+  </si>
+  <si>
+    <t>//*[onclick="searchtext()"]</t>
+  </si>
+  <si>
+    <t>//*[td="Property"]/following-sibling:://*[@id="propName"]</t>
+  </si>
+  <si>
+    <t>//*[@id="propName"]</t>
+  </si>
+  <si>
+    <t>//*[td="Lease Name"]/following-sibling:://*[@id="leaseName"]</t>
+  </si>
+  <si>
+    <t>//*[@id="leaseName"]</t>
+  </si>
+  <si>
+    <t>//*[td="FASB/IASB Begin Date"]/following-sibling:://*[@id="fasbBeginDate"]</t>
+  </si>
+  <si>
+    <t>//*[@id="fasbBeginDate"]</t>
+  </si>
+  <si>
+    <t>//*[td="FASB/IASB End Date"]/following-sibling:://*[@id="fasbEndDate"]</t>
+  </si>
+  <si>
+    <t>//*[@id="fasbEndDate"]</t>
+  </si>
+  <si>
+    <t>//*[td="# of Periods"]/following-sibling:://*[@id="noOfPeriods"]</t>
+  </si>
+  <si>
+    <t>//*[@id="noOfPeriods"]</t>
+  </si>
+  <si>
+    <t>//*[td="NPV Interest Rate"]/following-sibling:://*[@id="npvInterestRate"]</t>
+  </si>
+  <si>
+    <t>//*[@id="npvInterestRate"]</t>
+  </si>
+  <si>
+    <t>//*[td="Imputed Interest Rate"]/following-sibling:://*[@id="imputedper"]</t>
+  </si>
+  <si>
+    <t>//*[@id="imputedper"]</t>
+  </si>
+  <si>
+    <t>//*[td="Display Long Term/Short Term Liabilities"]/following-sibling:://*[@id="chkDisplayLTSTLiability"]</t>
+  </si>
+  <si>
+    <t>//*[@id="chkDisplayLTSTLiability"]</t>
+  </si>
+  <si>
+    <t>//*[td="Calendar Method"]/following-sibling:://*[@id="calendarMethod"]</t>
+  </si>
+  <si>
+    <t>//*[@id="calendarMethod"]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -855,14 +921,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -873,6 +931,34 @@
       <color rgb="FF222222"/>
       <name val="Menlo"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="PT Sans"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="6">
@@ -945,7 +1031,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -989,23 +1075,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="81">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="80">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2084,7 +2163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -2198,19 +2277,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="80" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="79" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="78" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="77" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="76" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2223,7 +2302,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2416,190 +2495,190 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:A1048576 A2 A7">
-    <cfRule type="duplicateValues" dxfId="75" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A1048576">
-    <cfRule type="duplicateValues" dxfId="74" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A1048576">
-    <cfRule type="duplicateValues" dxfId="73" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A1048576">
-    <cfRule type="duplicateValues" dxfId="72" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A1048576">
-    <cfRule type="duplicateValues" dxfId="71" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="70" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="69" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="68" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="67" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="66" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="65" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="64" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="63" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="62" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="61" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="60" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="59" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="58" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="57" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="56" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="55" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="54" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="53" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="52" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="51" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="50" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="49" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="48" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="47" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="46" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="45" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="44" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="43" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="42" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="41" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="40" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="39" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="38" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="37" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="36" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="35" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="34" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="33" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="32" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="31" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="30" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="29" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="28" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="27" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="26" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="25" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="24" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="23" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="22" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="21" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="20" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="17" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2741,25 +2820,25 @@
   </sheetData>
   <autoFilter ref="A1:A4" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A1048576 A1:A3">
-    <cfRule type="duplicateValues" dxfId="9" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="72"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -2771,8 +2850,8 @@
   <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3754,13 +3833,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A151:A1048576 A1:A34 A37:A38">
-    <cfRule type="duplicateValues" dxfId="6" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151:A1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3769,11 +3848,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4093F9D6-DA39-724D-873F-B6ECFD1D3CAF}">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3802,272 +3881,390 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>39</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>43</v>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>42</v>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>18</v>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>236</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>40</v>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>258</v>
       </c>
       <c r="C7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>241</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>239</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>230</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>231</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>244</v>
+      </c>
+      <c r="B22" t="s">
+        <v>245</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>232</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>233</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>234</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>235</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>248</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="C27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-    </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="B21" s="17" t="s">
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="B28" s="17" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="15"/>
+      <c r="B30" s="17"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="15"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="15"/>
+      <c r="B34" s="17" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+      <c r="B35" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="15"/>
+      <c r="B36" t="s">
         <v>252</v>
       </c>
-      <c r="B28" s="18"/>
-    </row>
-    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37" s="17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38" s="17" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B40" s="18"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="15"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="16"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="16"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="16"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="16"/>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="13"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="13"/>
@@ -4075,8 +4272,8 @@
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="13"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="13"/>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="13"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="13"/>
@@ -4087,8 +4284,8 @@
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="13"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="13"/>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B69" s="13"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" s="13"/>
@@ -4105,24 +4302,18 @@
     <row r="74" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74" s="13"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B75" s="13"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="15"/>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="15"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A162:A1048576 A48:A49 A1:A19 A21:A45">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A162:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A93">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A161:A1048576 A47:A48 A1 A28:A44">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A161:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/objectLocator/OR_FASB.xlsx
+++ b/src/main/resources/objectLocator/OR_FASB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asif/Documents/AMT/AMT-TestFrameWork/src/main/resources/objectLocator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F5AF77-F0D4-344D-90F3-68C2BE2D16E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3A775D-59B8-7444-B33C-E45CBE420366}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3852,7 +3852,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/objectLocator/OR_FASB.xlsx
+++ b/src/main/resources/objectLocator/OR_FASB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asif/Documents/AMT/AMT-TestFrameWork/src/main/resources/objectLocator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3A775D-59B8-7444-B33C-E45CBE420366}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC120EE6-EE00-D746-92F0-98B1A419B8C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2660" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIGeneric" sheetId="38" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="275">
   <si>
     <t>panelExportWidgetHeader</t>
   </si>
@@ -790,39 +790,15 @@
     <t>//*[@id="DisplayType_listbox"]/</t>
   </si>
   <si>
-    <t>ScheduleList</t>
-  </si>
-  <si>
     <t>ScheduleTable</t>
   </si>
   <si>
-    <t>//*[td="FASB - Operating"]</t>
-  </si>
-  <si>
-    <t>SelectFASBoperatingLease</t>
-  </si>
-  <si>
-    <t>btn btn-default btn-sm</t>
-  </si>
-  <si>
-    <t>k-textbox</t>
-  </si>
-  <si>
-    <t>//*[@class="btn btn-default btn-sm"]/following-sibling:://*[@class="k-textbox"]/</t>
-  </si>
-  <si>
-    <t>//*[@class="btn btn-default btn-sm"]</t>
-  </si>
-  <si>
     <t>LeaseTableSearchButton</t>
   </si>
   <si>
     <t>//input[contains(//*[@id="txtfilter"], ‘Search’)]</t>
   </si>
   <si>
-    <t>//*[onclick="searchtext()"]</t>
-  </si>
-  <si>
     <t>//*[td="Property"]/following-sibling:://*[@id="propName"]</t>
   </si>
   <si>
@@ -875,6 +851,27 @@
   </si>
   <si>
     <t>//*[@id="calendarMethod"]</t>
+  </si>
+  <si>
+    <t>ParentDivOfTable</t>
+  </si>
+  <si>
+    <t>//*[@id="grdChargeList"]</t>
+  </si>
+  <si>
+    <t>TemporaryLeaseSelection</t>
+  </si>
+  <si>
+    <t>//*[td="BRN"]</t>
+  </si>
+  <si>
+    <t>//*[@id="tbarCmdSchedule"]</t>
+  </si>
+  <si>
+    <t>ScheduleTableFromRevision</t>
+  </si>
+  <si>
+    <t>//*[@id="LessorScheduleList"]</t>
   </si>
 </sst>
 </file>
@@ -2849,9 +2846,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3848,11 +3845,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4093F9D6-DA39-724D-873F-B6ECFD1D3CAF}">
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3941,7 +3938,7 @@
         <v>242</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
@@ -3952,7 +3949,7 @@
         <v>223</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C8" t="s">
         <v>37</v>
@@ -3963,7 +3960,7 @@
         <v>224</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -3974,7 +3971,7 @@
         <v>225</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
@@ -3985,7 +3982,7 @@
         <v>226</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -3996,7 +3993,7 @@
         <v>237</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -4007,7 +4004,7 @@
         <v>227</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -4018,7 +4015,7 @@
         <v>238</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
@@ -4029,7 +4026,7 @@
         <v>228</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -4040,7 +4037,7 @@
         <v>241</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>
@@ -4051,7 +4048,7 @@
         <v>229</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C17" t="s">
         <v>37</v>
@@ -4062,7 +4059,7 @@
         <v>239</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C18" t="s">
         <v>37</v>
@@ -4073,7 +4070,7 @@
         <v>230</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C19" t="s">
         <v>37</v>
@@ -4084,7 +4081,7 @@
         <v>240</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C20" t="s">
         <v>37</v>
@@ -4120,7 +4117,7 @@
         <v>232</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C23" t="s">
         <v>37</v>
@@ -4131,7 +4128,7 @@
         <v>233</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
@@ -4142,7 +4139,7 @@
         <v>234</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
@@ -4153,7 +4150,7 @@
         <v>235</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
@@ -4161,21 +4158,21 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>248</v>
-      </c>
-      <c r="B27" s="18" t="s">
         <v>247</v>
       </c>
+      <c r="B27" s="17" t="s">
+        <v>274</v>
+      </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="C28" t="s">
         <v>37</v>
@@ -4183,61 +4180,65 @@
     </row>
     <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="17"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
+        <v>249</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
+      <c r="B33" s="18"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
-      <c r="B34" s="17" t="s">
-        <v>253</v>
-      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
-      <c r="B35" s="18" t="s">
-        <v>251</v>
-      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
-      <c r="B36" t="s">
-        <v>252</v>
-      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
-      <c r="B37" s="17" t="s">
-        <v>254</v>
-      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
-      <c r="B38" s="17" t="s">
-        <v>257</v>
-      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
+      <c r="B39" s="18"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
-      <c r="B40" s="18"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
@@ -4249,40 +4250,47 @@
       <c r="A43" s="15"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="17"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="16"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
+      <c r="B46" s="17"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="16"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="16"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B47" s="18"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="17"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="13"/>
+      <c r="B50" s="17"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="13"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="13"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="13"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="13"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="13"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="13"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="13"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="13"/>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B68" s="13"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" s="13"/>
@@ -4299,20 +4307,17 @@
     <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" s="13"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B74" s="13"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="15"/>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="15"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A161:A1048576 A47:A48 A1 A28:A44">
+  <conditionalFormatting sqref="A160:A1048576 A46:A47 A1 A28:A43">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A161:A1048576">
+  <conditionalFormatting sqref="A160:A1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A92">
+  <conditionalFormatting sqref="A91">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/objectLocator/OR_FASB.xlsx
+++ b/src/main/resources/objectLocator/OR_FASB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="5475" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="6375" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="FIGeneric" sheetId="38" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="241">
   <si>
     <t>panelExportWidgetHeader</t>
   </si>
@@ -700,13 +700,67 @@
   </si>
   <si>
     <t>//*[contains(@id,'RENTABLE_SQFT')]</t>
+  </si>
+  <si>
+    <t>tbarCmdPrint_report</t>
+  </si>
+  <si>
+    <t>btnPrint</t>
+  </si>
+  <si>
+    <t>tbarCmdreport_cancel</t>
+  </si>
+  <si>
+    <t>btnCancel</t>
+  </si>
+  <si>
+    <t>processCount</t>
+  </si>
+  <si>
+    <t>//*[@id='pin']</t>
+  </si>
+  <si>
+    <t>queueCount</t>
+  </si>
+  <si>
+    <t>//*[@class='sub-title']</t>
+  </si>
+  <si>
+    <t>tbarCmdPost</t>
+  </si>
+  <si>
+    <t>btnPost</t>
+  </si>
+  <si>
+    <t>tbarCmdTransaction_report</t>
+  </si>
+  <si>
+    <t>btnTransactionReport</t>
+  </si>
+  <si>
+    <t>tbarCmdJournalEntry</t>
+  </si>
+  <si>
+    <t>btnJEReport</t>
+  </si>
+  <si>
+    <t>tbarCmdFxJournalEntry</t>
+  </si>
+  <si>
+    <t>btnFXJEReport</t>
+  </si>
+  <si>
+    <t>//button[contains(text(),"Save")]</t>
+  </si>
+  <si>
+    <t>tbBatchHistroy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -744,6 +798,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF808080"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="6">
@@ -816,7 +876,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -859,6 +919,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2050,7 +2113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
     </sheetView>
@@ -3049,18 +3112,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="2" max="3" width="47" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" customWidth="1"/>
     <col min="5" max="5" width="56.5703125" customWidth="1"/>
   </cols>
@@ -3244,20 +3306,133 @@
         <v>37</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B18" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B19" t="s">
+        <v>230</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>232</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>234</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>236</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>238</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" t="s">
+        <v>239</v>
+      </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>240</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="13"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A15:A1048576 A2 A7">
+  <conditionalFormatting sqref="A15:A17 A2 A7 A20:A1048576">
     <cfRule type="duplicateValues" dxfId="68" priority="65"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A1048576">
+  <conditionalFormatting sqref="A15:A17 A20:A1048576">
     <cfRule type="duplicateValues" dxfId="67" priority="64"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A1048576">
+  <conditionalFormatting sqref="A15:A17 A20:A1048576">
     <cfRule type="duplicateValues" dxfId="66" priority="63"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A1048576">
+  <conditionalFormatting sqref="A15:A17 A20:A1048576">
     <cfRule type="duplicateValues" dxfId="65" priority="62"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A1048576">
+  <conditionalFormatting sqref="A15:A17 A20:A1048576">
     <cfRule type="duplicateValues" dxfId="64" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">

--- a/src/main/resources/objectLocator/OR_FASB.xlsx
+++ b/src/main/resources/objectLocator/OR_FASB.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSI\AMTAutomationRipo\AMT-TestFrameWork\src\main\resources\objectLocator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asif/Documents/Project/AMT-TestFrameWork/src/main/resources/objectLocator/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDA1DB8-9FDE-ED44-B8AB-970AC974E835}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="6375" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-2660" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIGeneric" sheetId="38" r:id="rId1"/>
-    <sheet name="FIRevisions" sheetId="32" r:id="rId2"/>
-    <sheet name="FIProcess" sheetId="20" r:id="rId3"/>
-    <sheet name="BatchHistory" sheetId="8" r:id="rId4"/>
+    <sheet name="FIProcess" sheetId="20" r:id="rId2"/>
+    <sheet name="BatchHistory" sheetId="8" r:id="rId3"/>
+    <sheet name="FIRevisions" sheetId="32" r:id="rId4"/>
+    <sheet name="FISchedule" sheetId="39" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BatchHistory!$A$1:$A$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FIRevisions!$A$1:$A$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">BatchHistory!$A$1:$A$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">FIRevisions!$A$1:$A$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">FISchedule!$A$1:$A$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="275">
   <si>
     <t>panelExportWidgetHeader</t>
   </si>
@@ -702,65 +705,180 @@
     <t>//*[contains(@id,'RENTABLE_SQFT')]</t>
   </si>
   <si>
-    <t>tbarCmdPrint_report</t>
-  </si>
-  <si>
-    <t>btnPrint</t>
-  </si>
-  <si>
-    <t>tbarCmdreport_cancel</t>
-  </si>
-  <si>
-    <t>btnCancel</t>
-  </si>
-  <si>
-    <t>processCount</t>
-  </si>
-  <si>
-    <t>//*[@id='pin']</t>
-  </si>
-  <si>
-    <t>queueCount</t>
-  </si>
-  <si>
-    <t>//*[@class='sub-title']</t>
-  </si>
-  <si>
-    <t>tbarCmdPost</t>
-  </si>
-  <si>
-    <t>btnPost</t>
-  </si>
-  <si>
-    <t>tbarCmdTransaction_report</t>
-  </si>
-  <si>
-    <t>btnTransactionReport</t>
-  </si>
-  <si>
-    <t>tbarCmdJournalEntry</t>
-  </si>
-  <si>
-    <t>btnJEReport</t>
-  </si>
-  <si>
-    <t>tbarCmdFxJournalEntry</t>
-  </si>
-  <si>
-    <t>btnFXJEReport</t>
-  </si>
-  <si>
-    <t>//button[contains(text(),"Save")]</t>
-  </si>
-  <si>
-    <t>tbBatchHistroy</t>
+    <t>PropertyValue</t>
+  </si>
+  <si>
+    <t>LeaseName</t>
+  </si>
+  <si>
+    <t>LeaseNameValue</t>
+  </si>
+  <si>
+    <t>FIBeginDate</t>
+  </si>
+  <si>
+    <t>FIEndDate</t>
+  </si>
+  <si>
+    <t>NumberOfPeriods</t>
+  </si>
+  <si>
+    <t>NPVInterestRate</t>
+  </si>
+  <si>
+    <t>ImputedInterestRate</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>DisplayLongTermLiabilities</t>
+  </si>
+  <si>
+    <t>DisplayLongTermLiabilitiesCheckbox</t>
+  </si>
+  <si>
+    <t>CalenderMethod</t>
+  </si>
+  <si>
+    <t>CalenderMethodValue</t>
+  </si>
+  <si>
+    <t>SelectLease</t>
+  </si>
+  <si>
+    <t>FIBeginDateValue</t>
+  </si>
+  <si>
+    <t>FIEndDateValue</t>
+  </si>
+  <si>
+    <t>NPVInterestRateValue</t>
+  </si>
+  <si>
+    <t>ImputedInterestRateValue</t>
+  </si>
+  <si>
+    <t>NumberOfPeriodsValue</t>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>roperty</t>
+    </r>
+  </si>
+  <si>
+    <t>//*[td="Display"]</t>
+  </si>
+  <si>
+    <t>DisplayCheckList</t>
+  </si>
+  <si>
+    <t>//*[@aria-owns='DisplayType_listbox']</t>
+  </si>
+  <si>
+    <t>//*[@id="DisplayType_listbox"]/</t>
+  </si>
+  <si>
+    <t>ScheduleTable</t>
+  </si>
+  <si>
+    <t>LeaseTableSearchButton</t>
+  </si>
+  <si>
+    <t>//input[contains(//*[@id="txtfilter"], ‘Search’)]</t>
+  </si>
+  <si>
+    <t>//*[td="Property"]/following-sibling:://*[@id="propName"]</t>
+  </si>
+  <si>
+    <t>//*[@id="propName"]</t>
+  </si>
+  <si>
+    <t>//*[td="Lease Name"]/following-sibling:://*[@id="leaseName"]</t>
+  </si>
+  <si>
+    <t>//*[@id="leaseName"]</t>
+  </si>
+  <si>
+    <t>//*[td="FASB/IASB Begin Date"]/following-sibling:://*[@id="fasbBeginDate"]</t>
+  </si>
+  <si>
+    <t>//*[@id="fasbBeginDate"]</t>
+  </si>
+  <si>
+    <t>//*[td="FASB/IASB End Date"]/following-sibling:://*[@id="fasbEndDate"]</t>
+  </si>
+  <si>
+    <t>//*[@id="fasbEndDate"]</t>
+  </si>
+  <si>
+    <t>//*[td="# of Periods"]/following-sibling:://*[@id="noOfPeriods"]</t>
+  </si>
+  <si>
+    <t>//*[@id="noOfPeriods"]</t>
+  </si>
+  <si>
+    <t>//*[td="NPV Interest Rate"]/following-sibling:://*[@id="npvInterestRate"]</t>
+  </si>
+  <si>
+    <t>//*[@id="npvInterestRate"]</t>
+  </si>
+  <si>
+    <t>//*[td="Imputed Interest Rate"]/following-sibling:://*[@id="imputedper"]</t>
+  </si>
+  <si>
+    <t>//*[@id="imputedper"]</t>
+  </si>
+  <si>
+    <t>//*[td="Display Long Term/Short Term Liabilities"]/following-sibling:://*[@id="chkDisplayLTSTLiability"]</t>
+  </si>
+  <si>
+    <t>//*[@id="chkDisplayLTSTLiability"]</t>
+  </si>
+  <si>
+    <t>//*[td="Calendar Method"]/following-sibling:://*[@id="calendarMethod"]</t>
+  </si>
+  <si>
+    <t>//*[@id="calendarMethod"]</t>
+  </si>
+  <si>
+    <t>ParentDivOfTable</t>
+  </si>
+  <si>
+    <t>//*[@id="grdChargeList"]</t>
+  </si>
+  <si>
+    <t>TemporaryLeaseSelection</t>
+  </si>
+  <si>
+    <t>//*[td="BRN"]</t>
+  </si>
+  <si>
+    <t>//*[@id="tbarCmdSchedule"]</t>
+  </si>
+  <si>
+    <t>ScheduleTableFromRevision</t>
+  </si>
+  <si>
+    <t>//*[@id="LessorScheduleList"]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -800,10 +918,44 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <color rgb="FF808080"/>
-      <name val="Courier New"/>
-      <family val="3"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="PT Sans"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="6">
@@ -876,7 +1028,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -920,14 +1072,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="77">
+  <dxfs count="80">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1973,22 +2157,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" customWidth="1"/>
-    <col min="3" max="3" width="52.85546875" customWidth="1"/>
-    <col min="4" max="4" width="56.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="52.83203125" customWidth="1"/>
+    <col min="4" max="4" width="56.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2002,7 +2186,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -2014,7 +2198,7 @@
       </c>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2026,7 +2210,7 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -2038,7 +2222,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -2050,7 +2234,7 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
@@ -2058,7 +2242,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
@@ -2066,7 +2250,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -2077,7 +2261,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
@@ -2090,19 +2274,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="76" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="75" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="74" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="73" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="72" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2110,1000 +2294,388 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="2" max="2" width="57.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="46.140625" customWidth="1"/>
-    <col min="5" max="5" width="42.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="47" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="56.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>9</v>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>42</v>
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>71</v>
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>72</v>
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>75</v>
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>77</v>
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>84</v>
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>85</v>
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>86</v>
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B31" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="B33" t="s">
-        <v>165</v>
-      </c>
-      <c r="C33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B34" t="s">
-        <v>166</v>
-      </c>
-      <c r="C34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="B35" t="s">
-        <v>167</v>
-      </c>
-      <c r="C35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B36" t="s">
-        <v>120</v>
-      </c>
-      <c r="C36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="B37" t="s">
-        <v>124</v>
-      </c>
-      <c r="C37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B38" t="s">
-        <v>125</v>
-      </c>
-      <c r="C38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>128</v>
-      </c>
-      <c r="B39" t="s">
-        <v>100</v>
-      </c>
-      <c r="C39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>129</v>
-      </c>
-      <c r="B40" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="B41" t="s">
-        <v>131</v>
-      </c>
-      <c r="C41" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="B42" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="B43" t="s">
-        <v>135</v>
-      </c>
-      <c r="C43" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>136</v>
-      </c>
-      <c r="B44" t="s">
-        <v>137</v>
-      </c>
-      <c r="C44" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B45" t="s">
-        <v>139</v>
-      </c>
-      <c r="C45" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="B46" t="s">
-        <v>141</v>
-      </c>
-      <c r="C46" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="B47" t="s">
-        <v>143</v>
-      </c>
-      <c r="C47" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B48" t="s">
-        <v>205</v>
-      </c>
-      <c r="C48" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>145</v>
-      </c>
-      <c r="B49" t="s">
-        <v>146</v>
-      </c>
-      <c r="C49" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>147</v>
-      </c>
-      <c r="B50" t="s">
-        <v>148</v>
-      </c>
-      <c r="C50" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>149</v>
-      </c>
-      <c r="B51" t="s">
-        <v>150</v>
-      </c>
-      <c r="C51" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>151</v>
-      </c>
-      <c r="B52" t="s">
-        <v>152</v>
-      </c>
-      <c r="C52" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>153</v>
-      </c>
-      <c r="B53" t="s">
-        <v>154</v>
-      </c>
-      <c r="C53" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>155</v>
-      </c>
-      <c r="B54" t="s">
-        <v>156</v>
-      </c>
-      <c r="C54" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>157</v>
-      </c>
-      <c r="B55" t="s">
-        <v>158</v>
-      </c>
-      <c r="C55" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>159</v>
-      </c>
-      <c r="B56" t="s">
-        <v>160</v>
-      </c>
-      <c r="C56" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>161</v>
-      </c>
-      <c r="B57" t="s">
-        <v>162</v>
-      </c>
-      <c r="C57" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>163</v>
-      </c>
-      <c r="B58" t="s">
-        <v>164</v>
-      </c>
-      <c r="C58" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>169</v>
-      </c>
-      <c r="B59" t="s">
-        <v>171</v>
-      </c>
-      <c r="C59" t="s">
-        <v>37</v>
-      </c>
-      <c r="E59" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>170</v>
-      </c>
-      <c r="B60" t="s">
-        <v>168</v>
-      </c>
-      <c r="C60" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>179</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="C61" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>144</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="C62" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>77</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="C63" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>75</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="C64" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>183</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C65" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>185</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="C66" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>187</v>
-      </c>
-      <c r="B67" t="s">
-        <v>188</v>
-      </c>
-      <c r="C67" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>189</v>
-      </c>
-      <c r="B68" t="s">
-        <v>190</v>
-      </c>
-      <c r="C68" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>191</v>
-      </c>
-      <c r="B69" t="s">
-        <v>192</v>
-      </c>
-      <c r="C69" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>193</v>
-      </c>
-      <c r="B70" t="s">
-        <v>194</v>
-      </c>
-      <c r="C70" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>195</v>
-      </c>
-      <c r="B71" t="s">
-        <v>196</v>
-      </c>
-      <c r="C71" t="s">
-        <v>37</v>
-      </c>
-      <c r="E71" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>198</v>
-      </c>
-      <c r="B72" t="s">
-        <v>137</v>
-      </c>
-      <c r="C72" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>199</v>
-      </c>
-      <c r="B73" t="s">
-        <v>200</v>
-      </c>
-      <c r="C73" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>201</v>
-      </c>
-      <c r="B74" t="s">
-        <v>202</v>
-      </c>
-      <c r="C74" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>203</v>
-      </c>
-      <c r="B75" t="s">
-        <v>204</v>
-      </c>
-      <c r="C75" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>206</v>
-      </c>
-      <c r="B76" t="s">
-        <v>207</v>
-      </c>
-      <c r="C76" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>208</v>
-      </c>
-      <c r="B77" t="s">
-        <v>209</v>
-      </c>
-      <c r="C77" t="s">
-        <v>37</v>
-      </c>
-      <c r="D77" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>210</v>
-      </c>
-      <c r="B78" t="s">
-        <v>211</v>
-      </c>
-      <c r="C78" t="s">
-        <v>37</v>
-      </c>
-      <c r="D78" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>212</v>
-      </c>
-      <c r="B79" t="s">
-        <v>213</v>
-      </c>
-      <c r="C79" t="s">
-        <v>37</v>
-      </c>
-      <c r="D79" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>214</v>
-      </c>
-      <c r="B80" t="s">
-        <v>215</v>
-      </c>
-      <c r="C80" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>216</v>
-      </c>
-      <c r="B81" t="s">
-        <v>217</v>
-      </c>
-      <c r="C81" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="B82" t="s">
-        <v>104</v>
-      </c>
-      <c r="C82" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>219</v>
-      </c>
-      <c r="B83" t="s">
-        <v>220</v>
-      </c>
-      <c r="C83" t="s">
-        <v>37</v>
-      </c>
-      <c r="E83" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>221</v>
-      </c>
-      <c r="B84" t="s">
-        <v>222</v>
-      </c>
-      <c r="C84" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A151:A1048576 A1:A34 A37:A38">
-    <cfRule type="duplicateValues" dxfId="71" priority="74"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A151:A1048576">
-    <cfRule type="duplicateValues" dxfId="70" priority="78"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82">
-    <cfRule type="duplicateValues" dxfId="69" priority="1"/>
+  <conditionalFormatting sqref="A15:A1048576 A2 A7">
+    <cfRule type="duplicateValues" dxfId="74" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:A1048576">
+    <cfRule type="duplicateValues" dxfId="73" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:A1048576">
+    <cfRule type="duplicateValues" dxfId="72" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:A1048576">
+    <cfRule type="duplicateValues" dxfId="71" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:A1048576">
+    <cfRule type="duplicateValues" dxfId="70" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="69" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="68" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="67" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="66" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="65" priority="53"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="64" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="63" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="62" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="61" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="60" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="duplicateValues" dxfId="59" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="duplicateValues" dxfId="58" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="duplicateValues" dxfId="57" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="duplicateValues" dxfId="56" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="duplicateValues" dxfId="55" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="54" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="53" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="52" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="51" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="50" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="49" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="48" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="47" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="46" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="45" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="44" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="43" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="42" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="41" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="40" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="duplicateValues" dxfId="39" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="duplicateValues" dxfId="38" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="duplicateValues" dxfId="37" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="duplicateValues" dxfId="36" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="duplicateValues" dxfId="35" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="duplicateValues" dxfId="34" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="duplicateValues" dxfId="33" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="duplicateValues" dxfId="32" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="duplicateValues" dxfId="31" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="duplicateValues" dxfId="30" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="duplicateValues" dxfId="29" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="duplicateValues" dxfId="28" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="duplicateValues" dxfId="27" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="duplicateValues" dxfId="26" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="duplicateValues" dxfId="25" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="24" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="23" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="22" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="21" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="duplicateValues" dxfId="20" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="duplicateValues" dxfId="19" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="duplicateValues" dxfId="18" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="duplicateValues" dxfId="17" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="duplicateValues" dxfId="16" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3111,525 +2683,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="3" width="47" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="56.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>224</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>226</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="B18" t="s">
-        <v>228</v>
-      </c>
-      <c r="D18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="B19" t="s">
-        <v>230</v>
-      </c>
-      <c r="D19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>232</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="D20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>234</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="D21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>236</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="D22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>238</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="D23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>136</v>
-      </c>
-      <c r="B24" t="s">
-        <v>239</v>
-      </c>
-      <c r="D24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>240</v>
-      </c>
-      <c r="B25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="13"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A15:A17 A2 A7 A20:A1048576">
-    <cfRule type="duplicateValues" dxfId="68" priority="65"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A17 A20:A1048576">
-    <cfRule type="duplicateValues" dxfId="67" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A17 A20:A1048576">
-    <cfRule type="duplicateValues" dxfId="66" priority="63"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A17 A20:A1048576">
-    <cfRule type="duplicateValues" dxfId="65" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A17 A20:A1048576">
-    <cfRule type="duplicateValues" dxfId="64" priority="61"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="63" priority="57"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="62" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="61" priority="55"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="60" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="59" priority="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="58" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="57" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="56" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="55" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="54" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="53" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="52" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="51" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="50" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="49" priority="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="48" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="47" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="46" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="45" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="44" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="43" priority="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="42" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="41" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="40" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="39" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="38" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="37" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="36" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="35" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="34" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="33" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="32" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="31" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="30" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="29" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="28" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="27" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="26" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="25" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="24" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="23" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="22" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="21" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="20" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="19" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="18" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="16" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="14" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="56.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="56.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3646,7 +2717,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3686,7 +2757,7 @@
       <c r="AG2"/>
       <c r="AH2"/>
     </row>
-    <row r="3" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -3728,7 +2799,7 @@
       <c r="AG3"/>
       <c r="AH3"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -3740,33 +2811,1513 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="E5" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A4"/>
+  <autoFilter ref="A1:A4" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="6" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="5" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="4" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="3" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A1048576 A1:A3">
-    <cfRule type="duplicateValues" dxfId="2" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="72"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E84"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A77" sqref="A77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43" customWidth="1"/>
+    <col min="2" max="2" width="57.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="46.1640625" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>151</v>
+      </c>
+      <c r="B52" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>153</v>
+      </c>
+      <c r="B53" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>157</v>
+      </c>
+      <c r="B55" t="s">
+        <v>158</v>
+      </c>
+      <c r="C55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>161</v>
+      </c>
+      <c r="B57" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>163</v>
+      </c>
+      <c r="B58" t="s">
+        <v>164</v>
+      </c>
+      <c r="C58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" t="s">
+        <v>171</v>
+      </c>
+      <c r="C59" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>170</v>
+      </c>
+      <c r="B60" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>179</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>144</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C62" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C64" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>183</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C65" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>185</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>187</v>
+      </c>
+      <c r="B67" t="s">
+        <v>188</v>
+      </c>
+      <c r="C67" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>189</v>
+      </c>
+      <c r="B68" t="s">
+        <v>190</v>
+      </c>
+      <c r="C68" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>191</v>
+      </c>
+      <c r="B69" t="s">
+        <v>192</v>
+      </c>
+      <c r="C69" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>193</v>
+      </c>
+      <c r="B70" t="s">
+        <v>194</v>
+      </c>
+      <c r="C70" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>195</v>
+      </c>
+      <c r="B71" t="s">
+        <v>196</v>
+      </c>
+      <c r="C71" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>198</v>
+      </c>
+      <c r="B72" t="s">
+        <v>137</v>
+      </c>
+      <c r="C72" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>199</v>
+      </c>
+      <c r="B73" t="s">
+        <v>200</v>
+      </c>
+      <c r="C73" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>201</v>
+      </c>
+      <c r="B74" t="s">
+        <v>202</v>
+      </c>
+      <c r="C74" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>203</v>
+      </c>
+      <c r="B75" t="s">
+        <v>204</v>
+      </c>
+      <c r="C75" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>206</v>
+      </c>
+      <c r="B76" t="s">
+        <v>207</v>
+      </c>
+      <c r="C76" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>208</v>
+      </c>
+      <c r="B77" t="s">
+        <v>209</v>
+      </c>
+      <c r="C77" t="s">
+        <v>37</v>
+      </c>
+      <c r="D77" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>210</v>
+      </c>
+      <c r="B78" t="s">
+        <v>211</v>
+      </c>
+      <c r="C78" t="s">
+        <v>37</v>
+      </c>
+      <c r="D78" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>212</v>
+      </c>
+      <c r="B79" t="s">
+        <v>213</v>
+      </c>
+      <c r="C79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D79" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>214</v>
+      </c>
+      <c r="B80" t="s">
+        <v>215</v>
+      </c>
+      <c r="C80" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>216</v>
+      </c>
+      <c r="B81" t="s">
+        <v>217</v>
+      </c>
+      <c r="C81" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B82" t="s">
+        <v>104</v>
+      </c>
+      <c r="C82" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>219</v>
+      </c>
+      <c r="B83" t="s">
+        <v>220</v>
+      </c>
+      <c r="C83" t="s">
+        <v>37</v>
+      </c>
+      <c r="E83" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>221</v>
+      </c>
+      <c r="B84" t="s">
+        <v>222</v>
+      </c>
+      <c r="C84" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A151:A1048576 A1:A34 A37:A38">
+    <cfRule type="duplicateValues" dxfId="5" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A151:A1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4093F9D6-DA39-724D-873F-B6ECFD1D3CAF}">
+  <dimension ref="A1:E91"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43" customWidth="1"/>
+    <col min="2" max="2" width="61.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="46.1640625" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>241</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>239</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>230</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>231</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>244</v>
+      </c>
+      <c r="B22" t="s">
+        <v>245</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>232</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>233</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>234</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>235</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>247</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="15"/>
+      <c r="B33" s="18"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="15"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="15"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="15"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="15"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="15"/>
+      <c r="B39" s="18"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="15"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="15"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="15"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="15"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="16"/>
+      <c r="B44" s="17"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="16"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="16"/>
+      <c r="B46" s="17"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="16"/>
+      <c r="B47" s="18"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="17"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="13"/>
+      <c r="B50" s="17"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="13"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="13"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="13"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="13"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="13"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="13"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B68" s="13"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B69" s="13"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B70" s="13"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B71" s="13"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B72" s="13"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B73" s="13"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="15"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A160:A1048576 A46:A47 A1 A28:A31 A33:A43">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A160:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A91">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/objectLocator/OR_FASB.xlsx
+++ b/src/main/resources/objectLocator/OR_FASB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asif/Documents/Project/AMT-TestFrameWork/src/main/resources/objectLocator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asif/Documents/AMT-TestFrameWork/src/main/resources/objectLocator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDA1DB8-9FDE-ED44-B8AB-970AC974E835}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E2B6B3-A7CF-7245-94BC-46F52FD1A972}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2660" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="276">
   <si>
     <t>panelExportWidgetHeader</t>
   </si>
@@ -868,10 +868,13 @@
     <t>//*[@id="tbarCmdSchedule"]</t>
   </si>
   <si>
-    <t>ScheduleTableFromRevision</t>
-  </si>
-  <si>
     <t>//*[@id="LessorScheduleList"]</t>
+  </si>
+  <si>
+    <t>tbarCmdAdd</t>
+  </si>
+  <si>
+    <t>Schedule2</t>
   </si>
 </sst>
 </file>
@@ -3848,7 +3851,7 @@
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
@@ -4161,7 +4164,7 @@
         <v>247</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
@@ -4200,15 +4203,20 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>272</v>
       </c>
       <c r="C31" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="18" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">

--- a/src/main/resources/objectLocator/OR_FASB.xlsx
+++ b/src/main/resources/objectLocator/OR_FASB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="6375" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="7275" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FIGeneric" sheetId="38" r:id="rId1"/>
@@ -2113,9 +2113,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3114,9 +3114,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/objectLocator/OR_FASB.xlsx
+++ b/src/main/resources/objectLocator/OR_FASB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asif/Documents/AMT-TestFrameWork/src/main/resources/objectLocator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E2B6B3-A7CF-7245-94BC-46F52FD1A972}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E7E28B-1F3D-2147-9279-B58C7665CA7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2660" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2660" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIGeneric" sheetId="38" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="277">
   <si>
     <t>panelExportWidgetHeader</t>
   </si>
@@ -790,9 +790,6 @@
     <t>//*[@id="DisplayType_listbox"]/</t>
   </si>
   <si>
-    <t>ScheduleTable</t>
-  </si>
-  <si>
     <t>LeaseTableSearchButton</t>
   </si>
   <si>
@@ -871,10 +868,16 @@
     <t>//*[@id="LessorScheduleList"]</t>
   </si>
   <si>
-    <t>tbarCmdAdd</t>
-  </si>
-  <si>
     <t>Schedule2</t>
+  </si>
+  <si>
+    <t>//*[@id="ScheduleList"]</t>
+  </si>
+  <si>
+    <t>ScheduleTableLocator</t>
+  </si>
+  <si>
+    <t>LessorScheduleTable</t>
   </si>
 </sst>
 </file>
@@ -961,7 +964,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -989,6 +992,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6E0B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,7 +1040,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1080,6 +1089,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2164,7 +2174,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3848,11 +3858,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4093F9D6-DA39-724D-873F-B6ECFD1D3CAF}">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3941,7 +3951,7 @@
         <v>242</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
@@ -3952,7 +3962,7 @@
         <v>223</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C8" t="s">
         <v>37</v>
@@ -3963,7 +3973,7 @@
         <v>224</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -3974,7 +3984,7 @@
         <v>225</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
@@ -3985,7 +3995,7 @@
         <v>226</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -3996,7 +4006,7 @@
         <v>237</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -4007,7 +4017,7 @@
         <v>227</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -4018,7 +4028,7 @@
         <v>238</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
@@ -4029,7 +4039,7 @@
         <v>228</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -4040,7 +4050,7 @@
         <v>241</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>
@@ -4051,7 +4061,7 @@
         <v>229</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C17" t="s">
         <v>37</v>
@@ -4062,7 +4072,7 @@
         <v>239</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C18" t="s">
         <v>37</v>
@@ -4073,7 +4083,7 @@
         <v>230</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C19" t="s">
         <v>37</v>
@@ -4084,7 +4094,7 @@
         <v>240</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C20" t="s">
         <v>37</v>
@@ -4120,7 +4130,7 @@
         <v>232</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C23" t="s">
         <v>37</v>
@@ -4131,7 +4141,7 @@
         <v>233</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
@@ -4142,7 +4152,7 @@
         <v>234</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
@@ -4153,18 +4163,18 @@
         <v>235</v>
       </c>
       <c r="B26" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>247</v>
-      </c>
       <c r="B27" s="17" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
@@ -4172,10 +4182,10 @@
     </row>
     <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>269</v>
+        <v>247</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>248</v>
       </c>
       <c r="C28" t="s">
         <v>37</v>
@@ -4183,10 +4193,10 @@
     </row>
     <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>249</v>
+        <v>269</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>270</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
@@ -4194,7 +4204,7 @@
     </row>
     <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>271</v>
@@ -4204,24 +4214,29 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
+      <c r="A31" t="s">
         <v>275</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>276</v>
+      </c>
+      <c r="B32" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="C31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="18" t="s">
-        <v>274</v>
+      <c r="C32" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
-      <c r="B33" s="18"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
@@ -4237,10 +4252,10 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
+      <c r="B38" s="18"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
-      <c r="B39" s="18"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
@@ -4252,35 +4267,35 @@
       <c r="A42" s="15"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="17"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="16"/>
-      <c r="B44" s="17"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="16"/>
+      <c r="B45" s="17"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
-      <c r="B46" s="17"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="16"/>
-      <c r="B47" s="18"/>
+      <c r="B46" s="18"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="17"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="13"/>
       <c r="B49" s="17"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="13"/>
-      <c r="B50" s="17"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="13"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="13"/>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="13"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="13"/>
@@ -4291,8 +4306,8 @@
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="13"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="13"/>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B67" s="13"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" s="13"/>
@@ -4309,20 +4324,17 @@
     <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72" s="13"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B73" s="13"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="15"/>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="15"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A160:A1048576 A46:A47 A1 A28:A31 A33:A43">
+  <conditionalFormatting sqref="A159:A1048576 A45:A46 A1 A27:A30 A33:A42">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A160:A1048576">
+  <conditionalFormatting sqref="A159:A1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A91">
+  <conditionalFormatting sqref="A90">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/objectLocator/OR_FASB.xlsx
+++ b/src/main/resources/objectLocator/OR_FASB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asif/Documents/AMT-TestFrameWork/src/main/resources/objectLocator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E7E28B-1F3D-2147-9279-B58C7665CA7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD13059C-6BF5-A445-AC44-D4335CA5FB3D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2660" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2660" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIGeneric" sheetId="38" r:id="rId1"/>
@@ -832,9 +832,6 @@
     <t>//*[@id="npvInterestRate"]</t>
   </si>
   <si>
-    <t>//*[td="Imputed Interest Rate"]/following-sibling:://*[@id="imputedper"]</t>
-  </si>
-  <si>
     <t>//*[@id="imputedper"]</t>
   </si>
   <si>
@@ -868,9 +865,6 @@
     <t>//*[@id="LessorScheduleList"]</t>
   </si>
   <si>
-    <t>Schedule2</t>
-  </si>
-  <si>
     <t>//*[@id="ScheduleList"]</t>
   </si>
   <si>
@@ -878,6 +872,12 @@
   </si>
   <si>
     <t>LessorScheduleTable</t>
+  </si>
+  <si>
+    <t>ScheduleButton</t>
+  </si>
+  <si>
+    <t>//*[td="Imputed Interest Rate"]</t>
   </si>
 </sst>
 </file>
@@ -3861,8 +3861,8 @@
   <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4083,7 +4083,7 @@
         <v>230</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="C19" t="s">
         <v>37</v>
@@ -4094,7 +4094,7 @@
         <v>240</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C20" t="s">
         <v>37</v>
@@ -4130,7 +4130,7 @@
         <v>232</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C23" t="s">
         <v>37</v>
@@ -4141,7 +4141,7 @@
         <v>233</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
@@ -4152,7 +4152,7 @@
         <v>234</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
@@ -4163,7 +4163,7 @@
         <v>235</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
@@ -4171,10 +4171,10 @@
     </row>
     <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="B27" s="17" t="s">
         <v>267</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>268</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
@@ -4193,10 +4193,10 @@
     </row>
     <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="B29" s="17" t="s">
         <v>269</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>270</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
@@ -4204,10 +4204,10 @@
     </row>
     <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -4215,10 +4215,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C31" t="s">
         <v>37</v>
@@ -4226,10 +4226,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C32" t="s">
         <v>37</v>

--- a/src/main/resources/objectLocator/OR_FASB.xlsx
+++ b/src/main/resources/objectLocator/OR_FASB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asif/Documents/AMT-TestFrameWork/src/main/resources/objectLocator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E7E28B-1F3D-2147-9279-B58C7665CA7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BF0172-60D8-7D40-B7BD-998810EC0407}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2660" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -787,9 +787,6 @@
     <t>//*[@aria-owns='DisplayType_listbox']</t>
   </si>
   <si>
-    <t>//*[@id="DisplayType_listbox"]/</t>
-  </si>
-  <si>
     <t>LeaseTableSearchButton</t>
   </si>
   <si>
@@ -878,6 +875,9 @@
   </si>
   <si>
     <t>LessorScheduleTable</t>
+  </si>
+  <si>
+    <t>//*[@id="DisplayType-list"]/</t>
   </si>
 </sst>
 </file>
@@ -3862,7 +3862,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3951,7 +3951,7 @@
         <v>242</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
@@ -3962,7 +3962,7 @@
         <v>223</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C8" t="s">
         <v>37</v>
@@ -3973,7 +3973,7 @@
         <v>224</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -3984,7 +3984,7 @@
         <v>225</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
@@ -3995,7 +3995,7 @@
         <v>226</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
@@ -4006,7 +4006,7 @@
         <v>237</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -4017,7 +4017,7 @@
         <v>227</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -4028,7 +4028,7 @@
         <v>238</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
@@ -4039,7 +4039,7 @@
         <v>228</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -4050,7 +4050,7 @@
         <v>241</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>
@@ -4061,7 +4061,7 @@
         <v>229</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C17" t="s">
         <v>37</v>
@@ -4072,7 +4072,7 @@
         <v>239</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C18" t="s">
         <v>37</v>
@@ -4083,7 +4083,7 @@
         <v>230</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C19" t="s">
         <v>37</v>
@@ -4094,7 +4094,7 @@
         <v>240</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C20" t="s">
         <v>37</v>
@@ -4122,7 +4122,7 @@
         <v>37</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -4130,18 +4130,19 @@
         <v>232</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C23" t="s">
         <v>37</v>
       </c>
+      <c r="E23" s="18"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>233</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
@@ -4152,7 +4153,7 @@
         <v>234</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
@@ -4163,7 +4164,7 @@
         <v>235</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
@@ -4171,10 +4172,10 @@
     </row>
     <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="B27" s="17" t="s">
         <v>267</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>268</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
@@ -4182,10 +4183,10 @@
     </row>
     <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B28" s="21" t="s">
         <v>247</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>248</v>
       </c>
       <c r="C28" t="s">
         <v>37</v>
@@ -4193,10 +4194,10 @@
     </row>
     <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="B29" s="17" t="s">
         <v>269</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>270</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
@@ -4204,10 +4205,10 @@
     </row>
     <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -4215,10 +4216,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C31" t="s">
         <v>37</v>
@@ -4226,10 +4227,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C32" t="s">
         <v>37</v>

--- a/src/main/resources/objectLocator/OR_FASB.xlsx
+++ b/src/main/resources/objectLocator/OR_FASB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asif/Documents/AMT-TestFrameWork/src/main/resources/objectLocator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BF0172-60D8-7D40-B7BD-998810EC0407}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66043C91-5826-A148-9E93-1C5EB396CA86}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2660" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -829,9 +829,6 @@
     <t>//*[@id="npvInterestRate"]</t>
   </si>
   <si>
-    <t>//*[td="Imputed Interest Rate"]/following-sibling:://*[@id="imputedper"]</t>
-  </si>
-  <si>
     <t>//*[@id="imputedper"]</t>
   </si>
   <si>
@@ -878,6 +875,9 @@
   </si>
   <si>
     <t>//*[@id="DisplayType-list"]/</t>
+  </si>
+  <si>
+    <t>//*[td="Imputed Interest Rate"]</t>
   </si>
 </sst>
 </file>
@@ -3862,7 +3862,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4083,7 +4083,7 @@
         <v>230</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="C19" t="s">
         <v>37</v>
@@ -4094,7 +4094,7 @@
         <v>240</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C20" t="s">
         <v>37</v>
@@ -4122,7 +4122,7 @@
         <v>37</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -4130,7 +4130,7 @@
         <v>232</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C23" t="s">
         <v>37</v>
@@ -4142,18 +4142,19 @@
         <v>233</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
       </c>
+      <c r="D24" s="18"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>234</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
@@ -4164,7 +4165,7 @@
         <v>235</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
@@ -4172,10 +4173,10 @@
     </row>
     <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="B27" s="17" t="s">
         <v>266</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>267</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
@@ -4194,10 +4195,10 @@
     </row>
     <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B29" s="17" t="s">
         <v>268</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>269</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
@@ -4205,10 +4206,10 @@
     </row>
     <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -4216,10 +4217,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C31" t="s">
         <v>37</v>
@@ -4227,10 +4228,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C32" t="s">
         <v>37</v>

--- a/src/main/resources/objectLocator/OR_FASB.xlsx
+++ b/src/main/resources/objectLocator/OR_FASB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="7275" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="7725" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FIGeneric" sheetId="38" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="243">
   <si>
     <t>panelExportWidgetHeader</t>
   </si>
@@ -754,13 +754,19 @@
   </si>
   <si>
     <t>tbBatchHistroy</t>
+  </si>
+  <si>
+    <t>//*[@title='Refresh']"</t>
+  </si>
+  <si>
+    <t>btnRefresh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -802,6 +808,12 @@
     <font>
       <sz val="9"/>
       <color rgb="FF808080"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF6A8759"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -876,7 +888,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -921,6 +933,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2111,11 +2126,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3092,6 +3107,17 @@
         <v>222</v>
       </c>
       <c r="C84" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>242</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="C85" t="s">
         <v>37</v>
       </c>
     </row>

--- a/src/main/resources/objectLocator/OR_FASB.xlsx
+++ b/src/main/resources/objectLocator/OR_FASB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asif/Documents/AMT-TestFrameWork/src/main/resources/objectLocator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66043C91-5826-A148-9E93-1C5EB396CA86}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EDD200-0074-E846-BE7D-EA854879A22B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2660" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -862,9 +862,6 @@
     <t>//*[@id="LessorScheduleList"]</t>
   </si>
   <si>
-    <t>Schedule2</t>
-  </si>
-  <si>
     <t>//*[@id="ScheduleList"]</t>
   </si>
   <si>
@@ -878,6 +875,9 @@
   </si>
   <si>
     <t>//*[td="Imputed Interest Rate"]</t>
+  </si>
+  <si>
+    <t>ScheduleButton</t>
   </si>
 </sst>
 </file>
@@ -2861,7 +2861,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A77" sqref="A77"/>
+      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3861,8 +3861,8 @@
   <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4083,7 +4083,7 @@
         <v>230</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C19" t="s">
         <v>37</v>
@@ -4122,7 +4122,7 @@
         <v>37</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -4206,7 +4206,7 @@
     </row>
     <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>269</v>
@@ -4217,10 +4217,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C31" t="s">
         <v>37</v>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B32" s="22" t="s">
         <v>270</v>
@@ -4236,9 +4236,6 @@
       <c r="C32" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
@@ -4330,7 +4327,7 @@
       <c r="A90" s="15"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A159:A1048576 A45:A46 A1 A27:A30 A33:A42">
+  <conditionalFormatting sqref="A159:A1048576 A45:A46 A1 A27:A30 A34:A42">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A159:A1048576">

--- a/src/main/resources/objectLocator/OR_FASB.xlsx
+++ b/src/main/resources/objectLocator/OR_FASB.xlsx
@@ -9,17 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="7725" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="9075" windowWidth="20730" windowHeight="11160" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="FIGeneric" sheetId="38" r:id="rId1"/>
     <sheet name="FIRevisions" sheetId="32" r:id="rId2"/>
     <sheet name="FIProcess" sheetId="20" r:id="rId3"/>
     <sheet name="BatchHistory" sheetId="8" r:id="rId4"/>
+    <sheet name="FISchedule" sheetId="39" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BatchHistory!$A$1:$A$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FIRevisions!$A$1:$A$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">FISchedule!$A$1:$A$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="298">
   <si>
     <t>panelExportWidgetHeader</t>
   </si>
@@ -760,13 +762,191 @@
   </si>
   <si>
     <t>btnRefresh</t>
+  </si>
+  <si>
+    <t>SelectLease</t>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>roperty</t>
+    </r>
+  </si>
+  <si>
+    <t>//*[td="Property"]/following-sibling:://*[@id="propName"]</t>
+  </si>
+  <si>
+    <t>PropertyValue</t>
+  </si>
+  <si>
+    <t>//*[@id="propName"]</t>
+  </si>
+  <si>
+    <t>LeaseName</t>
+  </si>
+  <si>
+    <t>//*[td="Lease Name"]/following-sibling:://*[@id="leaseName"]</t>
+  </si>
+  <si>
+    <t>LeaseNameValue</t>
+  </si>
+  <si>
+    <t>//*[@id="leaseName"]</t>
+  </si>
+  <si>
+    <t>FIBeginDate</t>
+  </si>
+  <si>
+    <t>//*[td="FASB/IASB Begin Date"]/following-sibling:://*[@id="fasbBeginDate"]</t>
+  </si>
+  <si>
+    <t>FIBeginDateValue</t>
+  </si>
+  <si>
+    <t>//*[@id="fasbBeginDate"]</t>
+  </si>
+  <si>
+    <t>FIEndDate</t>
+  </si>
+  <si>
+    <t>//*[td="FASB/IASB End Date"]/following-sibling:://*[@id="fasbEndDate"]</t>
+  </si>
+  <si>
+    <t>FIEndDateValue</t>
+  </si>
+  <si>
+    <t>//*[@id="fasbEndDate"]</t>
+  </si>
+  <si>
+    <t>NumberOfPeriods</t>
+  </si>
+  <si>
+    <t>//*[td="# of Periods"]/following-sibling:://*[@id="noOfPeriods"]</t>
+  </si>
+  <si>
+    <t>NumberOfPeriodsValue</t>
+  </si>
+  <si>
+    <t>//*[@id="noOfPeriods"]</t>
+  </si>
+  <si>
+    <t>NPVInterestRate</t>
+  </si>
+  <si>
+    <t>//*[td="NPV Interest Rate"]/following-sibling:://*[@id="npvInterestRate"]</t>
+  </si>
+  <si>
+    <t>NPVInterestRateValue</t>
+  </si>
+  <si>
+    <t>//*[@id="npvInterestRate"]</t>
+  </si>
+  <si>
+    <t>ImputedInterestRate</t>
+  </si>
+  <si>
+    <t>//*[td="Imputed Interest Rate"]</t>
+  </si>
+  <si>
+    <t>ImputedInterestRateValue</t>
+  </si>
+  <si>
+    <t>//*[@id="imputedper"]</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>//*[td="Display"]</t>
+  </si>
+  <si>
+    <t>DisplayCheckList</t>
+  </si>
+  <si>
+    <t>//*[@aria-owns='DisplayType_listbox']</t>
+  </si>
+  <si>
+    <t>//*[@id="DisplayType-list"]/</t>
+  </si>
+  <si>
+    <t>DisplayLongTermLiabilities</t>
+  </si>
+  <si>
+    <t>//*[td="Display Long Term/Short Term Liabilities"]/following-sibling:://*[@id="chkDisplayLTSTLiability"]</t>
+  </si>
+  <si>
+    <t>DisplayLongTermLiabilitiesCheckbox</t>
+  </si>
+  <si>
+    <t>//*[@id="chkDisplayLTSTLiability"]</t>
+  </si>
+  <si>
+    <t>CalenderMethod</t>
+  </si>
+  <si>
+    <t>//*[td="Calendar Method"]/following-sibling:://*[@id="calendarMethod"]</t>
+  </si>
+  <si>
+    <t>CalenderMethodValue</t>
+  </si>
+  <si>
+    <t>//*[@id="calendarMethod"]</t>
+  </si>
+  <si>
+    <t>ParentDivOfTable</t>
+  </si>
+  <si>
+    <t>//*[@id="grdChargeList"]</t>
+  </si>
+  <si>
+    <t>LeaseTableSearchButton</t>
+  </si>
+  <si>
+    <t>//input[contains(//*[@id="txtfilter"], ‘Search’)]</t>
+  </si>
+  <si>
+    <t>TemporaryLeaseSelection</t>
+  </si>
+  <si>
+    <t>//*[td="BRN"]</t>
+  </si>
+  <si>
+    <t>Schedule2</t>
+  </si>
+  <si>
+    <t>//*[@id="tbarCmdSchedule"]</t>
+  </si>
+  <si>
+    <t>ScheduleTableLocator</t>
+  </si>
+  <si>
+    <t>//*[@id="ScheduleList"]</t>
+  </si>
+  <si>
+    <t>LessorScheduleTable</t>
+  </si>
+  <si>
+    <t>//*[@id="LessorScheduleList"]</t>
+  </si>
+  <si>
+    <t>tbarCmdcancel_lease</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -817,8 +997,48 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="PT Sans"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -846,6 +1066,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6E0B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,7 +1120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -938,11 +1170,58 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="77">
+  <dxfs count="81">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1995,7 +2274,7 @@
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5703125" customWidth="1"/>
@@ -2003,7 +2282,7 @@
     <col min="4" max="4" width="56.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2017,7 +2296,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -2029,7 +2308,7 @@
       </c>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2041,7 +2320,7 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -2053,7 +2332,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -2065,7 +2344,7 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
@@ -2073,7 +2352,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
@@ -2081,7 +2360,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -2092,7 +2371,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
@@ -2105,19 +2384,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="76" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="75" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="74" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="73" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="72" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2128,12 +2407,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
     <col min="2" max="2" width="57.85546875" customWidth="1"/>
@@ -2142,7 +2421,7 @@
     <col min="5" max="5" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
@@ -2159,7 +2438,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -2168,7 +2447,7 @@
       </c>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -2180,7 +2459,7 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -2193,7 +2472,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -2205,7 +2484,7 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="12" t="s">
         <v>18</v>
       </c>
@@ -2216,7 +2495,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -2227,7 +2506,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="15" t="s">
         <v>71</v>
       </c>
@@ -2238,7 +2517,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="15" t="s">
         <v>72</v>
       </c>
@@ -2252,7 +2531,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="15" t="s">
         <v>75</v>
       </c>
@@ -2266,7 +2545,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="15" t="s">
         <v>77</v>
       </c>
@@ -2277,7 +2556,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="15" t="s">
         <v>84</v>
       </c>
@@ -2288,7 +2567,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="15" t="s">
         <v>85</v>
       </c>
@@ -2302,7 +2581,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="15" t="s">
         <v>86</v>
       </c>
@@ -2316,7 +2595,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="15" t="s">
         <v>87</v>
       </c>
@@ -2330,7 +2609,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="15" t="s">
         <v>88</v>
       </c>
@@ -2344,7 +2623,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="15" t="s">
         <v>89</v>
       </c>
@@ -2355,7 +2634,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="15" t="s">
         <v>91</v>
       </c>
@@ -2366,7 +2645,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="15" t="s">
         <v>93</v>
       </c>
@@ -2377,7 +2656,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="15" t="s">
         <v>94</v>
       </c>
@@ -2388,7 +2667,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="15" t="s">
         <v>96</v>
       </c>
@@ -2399,7 +2678,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="15" t="s">
         <v>98</v>
       </c>
@@ -2410,7 +2689,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="15" t="s">
         <v>128</v>
       </c>
@@ -2421,7 +2700,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="15" t="s">
         <v>102</v>
       </c>
@@ -2432,7 +2711,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="15" t="s">
         <v>106</v>
       </c>
@@ -2443,7 +2722,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="15" t="s">
         <v>105</v>
       </c>
@@ -2454,7 +2733,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="15" t="s">
         <v>108</v>
       </c>
@@ -2465,7 +2744,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="15" t="s">
         <v>110</v>
       </c>
@@ -2476,7 +2755,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="15" t="s">
         <v>112</v>
       </c>
@@ -2487,7 +2766,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="15" t="s">
         <v>114</v>
       </c>
@@ -2498,7 +2777,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="15" t="s">
         <v>116</v>
       </c>
@@ -2509,7 +2788,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="15" t="s">
         <v>118</v>
       </c>
@@ -2520,7 +2799,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="15" t="s">
         <v>119</v>
       </c>
@@ -2531,7 +2810,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="15" t="s">
         <v>121</v>
       </c>
@@ -2542,7 +2821,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="16" t="s">
         <v>122</v>
       </c>
@@ -2553,7 +2832,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="16" t="s">
         <v>123</v>
       </c>
@@ -2564,7 +2843,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="16" t="s">
         <v>126</v>
       </c>
@@ -2575,7 +2854,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="16" t="s">
         <v>127</v>
       </c>
@@ -2586,7 +2865,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>128</v>
       </c>
@@ -2597,7 +2876,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>129</v>
       </c>
@@ -2608,7 +2887,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="13" t="s">
         <v>130</v>
       </c>
@@ -2619,7 +2898,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="13" t="s">
         <v>132</v>
       </c>
@@ -2630,7 +2909,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="13" t="s">
         <v>134</v>
       </c>
@@ -2641,7 +2920,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>136</v>
       </c>
@@ -2652,7 +2931,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="13" t="s">
         <v>138</v>
       </c>
@@ -2663,7 +2942,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="13" t="s">
         <v>140</v>
       </c>
@@ -2674,7 +2953,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="13" t="s">
         <v>142</v>
       </c>
@@ -2685,7 +2964,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="13" t="s">
         <v>144</v>
       </c>
@@ -2696,7 +2975,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>145</v>
       </c>
@@ -2707,7 +2986,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>147</v>
       </c>
@@ -2718,7 +2997,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>149</v>
       </c>
@@ -2729,7 +3008,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>151</v>
       </c>
@@ -2740,7 +3019,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>153</v>
       </c>
@@ -2751,7 +3030,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>155</v>
       </c>
@@ -2762,7 +3041,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>157</v>
       </c>
@@ -2773,18 +3052,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="56" spans="1:5" s="19" customFormat="1">
+      <c r="A56" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="C56" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C56" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>161</v>
       </c>
@@ -2795,7 +3074,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>163</v>
       </c>
@@ -2806,7 +3085,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>169</v>
       </c>
@@ -2820,7 +3099,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>170</v>
       </c>
@@ -2831,7 +3110,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>179</v>
       </c>
@@ -2842,7 +3121,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>144</v>
       </c>
@@ -2853,7 +3132,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>77</v>
       </c>
@@ -2864,7 +3143,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -2875,7 +3154,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>183</v>
       </c>
@@ -2886,7 +3165,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>185</v>
       </c>
@@ -2897,18 +3176,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="67" spans="1:5" s="19" customFormat="1">
+      <c r="A67" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="C67" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C67" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>189</v>
       </c>
@@ -2919,7 +3198,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>191</v>
       </c>
@@ -2930,7 +3209,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>193</v>
       </c>
@@ -2941,7 +3220,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>195</v>
       </c>
@@ -2955,7 +3234,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>198</v>
       </c>
@@ -2966,7 +3245,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>199</v>
       </c>
@@ -2977,7 +3256,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>201</v>
       </c>
@@ -2988,7 +3267,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>203</v>
       </c>
@@ -2999,7 +3278,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>206</v>
       </c>
@@ -3010,7 +3289,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>208</v>
       </c>
@@ -3024,7 +3303,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>210</v>
       </c>
@@ -3038,7 +3317,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>212</v>
       </c>
@@ -3052,7 +3331,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>214</v>
       </c>
@@ -3063,7 +3342,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>216</v>
       </c>
@@ -3074,7 +3353,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" s="15" t="s">
         <v>218</v>
       </c>
@@ -3085,7 +3364,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>219</v>
       </c>
@@ -3099,7 +3378,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>221</v>
       </c>
@@ -3110,7 +3389,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>242</v>
       </c>
@@ -3123,13 +3402,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A151:A1048576 A1:A34 A37:A38">
-    <cfRule type="duplicateValues" dxfId="71" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151:A1048576">
-    <cfRule type="duplicateValues" dxfId="70" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82">
-    <cfRule type="duplicateValues" dxfId="69" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3145,7 +3424,7 @@
       <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="3" width="47" customWidth="1"/>
@@ -3153,7 +3432,7 @@
     <col min="5" max="5" width="56.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3170,7 +3449,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
@@ -3182,7 +3461,7 @@
       </c>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="9" t="s">
         <v>21</v>
       </c>
@@ -3194,7 +3473,7 @@
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
@@ -3207,7 +3486,7 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
@@ -3222,7 +3501,7 @@
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
@@ -3233,7 +3512,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
@@ -3244,7 +3523,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
@@ -3255,7 +3534,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
@@ -3266,7 +3545,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="9" t="s">
         <v>27</v>
       </c>
@@ -3277,7 +3556,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
@@ -3288,7 +3567,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="10" t="s">
         <v>30</v>
       </c>
@@ -3299,7 +3578,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="7" t="s">
         <v>29</v>
       </c>
@@ -3310,7 +3589,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -3321,7 +3600,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -3332,7 +3611,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>224</v>
       </c>
@@ -3343,7 +3622,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>226</v>
       </c>
@@ -3354,7 +3633,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="17" t="s">
         <v>229</v>
       </c>
@@ -3365,7 +3644,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="17" t="s">
         <v>227</v>
       </c>
@@ -3376,7 +3655,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>232</v>
       </c>
@@ -3387,7 +3666,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>234</v>
       </c>
@@ -3398,7 +3677,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>236</v>
       </c>
@@ -3409,7 +3688,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>238</v>
       </c>
@@ -3420,7 +3699,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>136</v>
       </c>
@@ -3431,7 +3710,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>240</v>
       </c>
@@ -3442,195 +3721,195 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="B26" s="13"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:A17 A2 A7 A20:A1048576">
-    <cfRule type="duplicateValues" dxfId="68" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A17 A20:A1048576">
-    <cfRule type="duplicateValues" dxfId="67" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A17 A20:A1048576">
-    <cfRule type="duplicateValues" dxfId="66" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A17 A20:A1048576">
-    <cfRule type="duplicateValues" dxfId="65" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A17 A20:A1048576">
-    <cfRule type="duplicateValues" dxfId="64" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="63" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="62" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="61" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="60" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="59" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="58" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="57" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="56" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="55" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="54" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="53" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="52" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="51" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="50" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="49" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="48" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="47" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="46" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="45" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="44" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="43" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="42" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="41" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="40" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="39" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="38" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="37" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="36" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="35" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="34" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="33" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="32" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="31" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="30" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="29" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="28" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="27" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="26" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="25" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="24" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="23" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="22" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="21" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="20" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="19" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="18" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="16" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="14" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3646,7 +3925,7 @@
       <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.42578125" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
@@ -3655,7 +3934,7 @@
     <col min="5" max="5" width="56.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3672,7 +3951,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" s="3" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3712,7 +3991,7 @@
       <c r="AG2"/>
       <c r="AH2"/>
     </row>
-    <row r="3" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" s="5" customFormat="1">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -3754,7 +4033,7 @@
       <c r="AG3"/>
       <c r="AH3"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -3766,33 +4045,505 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34">
       <c r="E5" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A4"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="6" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="5" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="4" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="3" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A1048576 A1:A3">
-    <cfRule type="duplicateValues" dxfId="2" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="72"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="43" customWidth="1"/>
+    <col min="2" max="2" width="96.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="46.140625" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>258</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>260</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>264</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>266</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>268</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>270</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>272</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>274</v>
+      </c>
+      <c r="B22" t="s">
+        <v>275</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>277</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="23"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>279</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="23"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>281</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>283</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75">
+      <c r="A28" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>293</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>295</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="15"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="16"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="16"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="16"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="16"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="13"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="13"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="13"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="13"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="13"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="13"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="13"/>
+    </row>
+    <row r="56" spans="2:2" s="19" customFormat="1"/>
+    <row r="61" spans="2:2">
+      <c r="B61" s="13"/>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="13"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="13"/>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="13"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="13"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="13"/>
+    </row>
+    <row r="67" spans="2:2" s="19" customFormat="1"/>
+    <row r="82" spans="1:2">
+      <c r="A82" s="15"/>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="B85" s="18"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A151:A1048576 A1 A37:A38 A33:A34">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A151:A1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:A30">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/objectLocator/OR_FASB.xlsx
+++ b/src/main/resources/objectLocator/OR_FASB.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSI\AMTAutomationRipo\AMT-TestFrameWork\src\main\resources\objectLocator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asif/Documents/AMTtest/AMT-TestFrameWork/src/main/resources/objectLocator/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C428DFCD-73F7-3746-A9D0-F45126C24C89}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="9075" windowWidth="20730" windowHeight="11160" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32720" windowHeight="20540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIGeneric" sheetId="38" r:id="rId1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="297">
   <si>
     <t>panelExportWidgetHeader</t>
   </si>
@@ -921,9 +922,6 @@
     <t>//*[td="BRN"]</t>
   </si>
   <si>
-    <t>Schedule2</t>
-  </si>
-  <si>
     <t>//*[@id="tbarCmdSchedule"]</t>
   </si>
   <si>
@@ -939,14 +937,14 @@
     <t>//*[@id="LessorScheduleList"]</t>
   </si>
   <si>
-    <t>tbarCmdcancel_lease</t>
+    <t>ScheduleButton</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1023,12 +1021,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Menlo"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1120,7 +1112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1175,23 +1167,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="81">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="80">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2267,22 +2250,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" customWidth="1"/>
-    <col min="3" max="3" width="52.85546875" customWidth="1"/>
-    <col min="4" max="4" width="56.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="52.83203125" customWidth="1"/>
+    <col min="4" max="4" width="56.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2296,7 +2279,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -2308,7 +2291,7 @@
       </c>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2320,7 +2303,7 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -2332,7 +2315,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -2344,7 +2327,7 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
@@ -2352,7 +2335,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
@@ -2360,7 +2343,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -2371,7 +2354,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
@@ -2384,19 +2367,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="80" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="79" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="78" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="77" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="76" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2404,7 +2387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2412,16 +2395,16 @@
       <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="2" max="2" width="57.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="46.140625" customWidth="1"/>
-    <col min="5" max="5" width="42.7109375" customWidth="1"/>
+    <col min="2" max="2" width="57.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="46.1640625" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
@@ -2438,7 +2421,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -2447,7 +2430,7 @@
       </c>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -2459,7 +2442,7 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -2472,7 +2455,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -2484,7 +2467,7 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>18</v>
       </c>
@@ -2495,7 +2478,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -2506,7 +2489,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>71</v>
       </c>
@@ -2517,7 +2500,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>72</v>
       </c>
@@ -2531,7 +2514,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>75</v>
       </c>
@@ -2545,7 +2528,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>77</v>
       </c>
@@ -2556,7 +2539,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>84</v>
       </c>
@@ -2567,7 +2550,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>85</v>
       </c>
@@ -2581,7 +2564,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>86</v>
       </c>
@@ -2595,7 +2578,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>87</v>
       </c>
@@ -2609,7 +2592,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>88</v>
       </c>
@@ -2623,7 +2606,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>89</v>
       </c>
@@ -2634,7 +2617,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>91</v>
       </c>
@@ -2645,7 +2628,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>93</v>
       </c>
@@ -2656,7 +2639,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>94</v>
       </c>
@@ -2667,7 +2650,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>96</v>
       </c>
@@ -2678,7 +2661,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>98</v>
       </c>
@@ -2689,7 +2672,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>128</v>
       </c>
@@ -2700,7 +2683,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>102</v>
       </c>
@@ -2711,7 +2694,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
         <v>106</v>
       </c>
@@ -2722,7 +2705,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
         <v>105</v>
       </c>
@@ -2733,7 +2716,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
         <v>108</v>
       </c>
@@ -2744,7 +2727,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>110</v>
       </c>
@@ -2755,7 +2738,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>112</v>
       </c>
@@ -2766,7 +2749,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
         <v>114</v>
       </c>
@@ -2777,7 +2760,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
         <v>116</v>
       </c>
@@ -2788,7 +2771,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
         <v>118</v>
       </c>
@@ -2799,7 +2782,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
         <v>119</v>
       </c>
@@ -2810,7 +2793,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
         <v>121</v>
       </c>
@@ -2821,7 +2804,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>122</v>
       </c>
@@ -2832,7 +2815,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>123</v>
       </c>
@@ -2843,7 +2826,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>126</v>
       </c>
@@ -2854,7 +2837,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>127</v>
       </c>
@@ -2865,7 +2848,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>128</v>
       </c>
@@ -2876,7 +2859,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>129</v>
       </c>
@@ -2887,7 +2870,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>130</v>
       </c>
@@ -2898,7 +2881,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>132</v>
       </c>
@@ -2909,7 +2892,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>134</v>
       </c>
@@ -2920,7 +2903,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>136</v>
       </c>
@@ -2931,7 +2914,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>138</v>
       </c>
@@ -2942,7 +2925,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>140</v>
       </c>
@@ -2953,7 +2936,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>142</v>
       </c>
@@ -2964,7 +2947,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>144</v>
       </c>
@@ -2975,7 +2958,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>145</v>
       </c>
@@ -2986,7 +2969,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>147</v>
       </c>
@@ -2997,7 +2980,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>149</v>
       </c>
@@ -3008,7 +2991,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>151</v>
       </c>
@@ -3019,7 +3002,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>153</v>
       </c>
@@ -3030,7 +3013,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>155</v>
       </c>
@@ -3041,7 +3024,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>157</v>
       </c>
@@ -3052,7 +3035,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="19" customFormat="1">
+    <row r="56" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
         <v>159</v>
       </c>
@@ -3063,7 +3046,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>161</v>
       </c>
@@ -3074,7 +3057,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>163</v>
       </c>
@@ -3085,7 +3068,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>169</v>
       </c>
@@ -3099,7 +3082,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>170</v>
       </c>
@@ -3110,7 +3093,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>179</v>
       </c>
@@ -3121,7 +3104,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>144</v>
       </c>
@@ -3132,7 +3115,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>77</v>
       </c>
@@ -3143,7 +3126,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -3154,7 +3137,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>183</v>
       </c>
@@ -3165,7 +3148,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>185</v>
       </c>
@@ -3176,7 +3159,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="19" customFormat="1">
+    <row r="67" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="s">
         <v>187</v>
       </c>
@@ -3187,7 +3170,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>189</v>
       </c>
@@ -3198,7 +3181,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>191</v>
       </c>
@@ -3209,7 +3192,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>193</v>
       </c>
@@ -3220,7 +3203,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>195</v>
       </c>
@@ -3234,7 +3217,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>198</v>
       </c>
@@ -3245,7 +3228,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>199</v>
       </c>
@@ -3256,7 +3239,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>201</v>
       </c>
@@ -3267,7 +3250,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>203</v>
       </c>
@@ -3278,7 +3261,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>206</v>
       </c>
@@ -3289,7 +3272,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>208</v>
       </c>
@@ -3303,7 +3286,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>210</v>
       </c>
@@ -3317,7 +3300,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>212</v>
       </c>
@@ -3331,7 +3314,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>214</v>
       </c>
@@ -3342,7 +3325,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>216</v>
       </c>
@@ -3353,7 +3336,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
         <v>218</v>
       </c>
@@ -3364,7 +3347,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>219</v>
       </c>
@@ -3378,7 +3361,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>221</v>
       </c>
@@ -3389,7 +3372,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>242</v>
       </c>
@@ -3402,13 +3385,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A151:A1048576 A1:A34 A37:A38">
-    <cfRule type="duplicateValues" dxfId="75" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151:A1048576">
-    <cfRule type="duplicateValues" dxfId="74" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82">
-    <cfRule type="duplicateValues" dxfId="73" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3416,7 +3399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3424,15 +3407,15 @@
       <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="3" width="47" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="56.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="56.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3449,7 +3432,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
@@ -3461,7 +3444,7 @@
       </c>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>21</v>
       </c>
@@ -3473,7 +3456,7 @@
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
@@ -3486,7 +3469,7 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
@@ -3501,7 +3484,7 @@
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
@@ -3512,7 +3495,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
@@ -3523,7 +3506,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
@@ -3534,7 +3517,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
@@ -3545,7 +3528,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>27</v>
       </c>
@@ -3556,7 +3539,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
@@ -3567,7 +3550,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>30</v>
       </c>
@@ -3578,7 +3561,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>29</v>
       </c>
@@ -3589,7 +3572,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -3600,7 +3583,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -3611,7 +3594,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>224</v>
       </c>
@@ -3622,7 +3605,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>226</v>
       </c>
@@ -3633,7 +3616,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>229</v>
       </c>
@@ -3644,7 +3627,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>227</v>
       </c>
@@ -3655,7 +3638,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>232</v>
       </c>
@@ -3666,7 +3649,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>234</v>
       </c>
@@ -3677,7 +3660,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>236</v>
       </c>
@@ -3688,7 +3671,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>238</v>
       </c>
@@ -3699,7 +3682,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>136</v>
       </c>
@@ -3710,7 +3693,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>240</v>
       </c>
@@ -3721,195 +3704,195 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:A17 A2 A7 A20:A1048576">
-    <cfRule type="duplicateValues" dxfId="72" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A17 A20:A1048576">
-    <cfRule type="duplicateValues" dxfId="71" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A17 A20:A1048576">
-    <cfRule type="duplicateValues" dxfId="70" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A17 A20:A1048576">
-    <cfRule type="duplicateValues" dxfId="69" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A17 A20:A1048576">
-    <cfRule type="duplicateValues" dxfId="68" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="67" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="66" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="65" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="64" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="63" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="62" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="61" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="60" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="59" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="58" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="57" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="56" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="55" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="54" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="53" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="52" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="51" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="50" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="49" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="48" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="47" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="46" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="45" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="44" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="43" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="42" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="41" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="40" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="39" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="38" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="37" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="36" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="35" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="34" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="33" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="32" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="31" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="30" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="29" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="28" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="27" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="26" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="25" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="24" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="23" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="22" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="21" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="20" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="19" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="18" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="16" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="15" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3917,7 +3900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -3925,16 +3908,16 @@
       <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="56.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="56.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3951,7 +3934,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="3" customFormat="1">
+    <row r="2" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3991,7 +3974,7 @@
       <c r="AG2"/>
       <c r="AH2"/>
     </row>
-    <row r="3" spans="1:34" s="5" customFormat="1">
+    <row r="3" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -4033,7 +4016,7 @@
       <c r="AG3"/>
       <c r="AH3"/>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -4045,31 +4028,31 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="E5" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A4"/>
+  <autoFilter ref="A1:A4" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="10" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="9" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="8" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="7" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A1048576 A1:A3">
-    <cfRule type="duplicateValues" dxfId="6" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="72"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -4077,41 +4060,41 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:Z90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="2" max="2" width="96.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="46.140625" customWidth="1"/>
-    <col min="5" max="5" width="42.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="85.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>11</v>
       </c>
@@ -4122,7 +4105,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
@@ -4133,7 +4116,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>18</v>
       </c>
@@ -4144,7 +4127,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>14</v>
       </c>
@@ -4155,18 +4138,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>243</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="21" t="s">
         <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>244</v>
       </c>
@@ -4177,7 +4160,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>246</v>
       </c>
@@ -4188,7 +4171,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>248</v>
       </c>
@@ -4199,7 +4182,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>250</v>
       </c>
@@ -4210,7 +4193,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>252</v>
       </c>
@@ -4221,7 +4204,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>254</v>
       </c>
@@ -4232,7 +4215,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>256</v>
       </c>
@@ -4243,7 +4226,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>258</v>
       </c>
@@ -4254,7 +4237,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>260</v>
       </c>
@@ -4265,7 +4248,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>262</v>
       </c>
@@ -4276,7 +4259,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>264</v>
       </c>
@@ -4287,7 +4270,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>266</v>
       </c>
@@ -4298,7 +4281,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>268</v>
       </c>
@@ -4309,7 +4292,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>270</v>
       </c>
@@ -4320,7 +4303,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>272</v>
       </c>
@@ -4331,7 +4314,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>274</v>
       </c>
@@ -4345,7 +4328,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>277</v>
       </c>
@@ -4355,9 +4338,8 @@
       <c r="C23" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="23"/>
-    </row>
-    <row r="24" spans="1:5">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>279</v>
       </c>
@@ -4367,9 +4349,8 @@
       <c r="C24" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="23"/>
-    </row>
-    <row r="25" spans="1:5">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>281</v>
       </c>
@@ -4380,7 +4361,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>283</v>
       </c>
@@ -4391,8 +4372,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="15" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
         <v>285</v>
       </c>
       <c r="B27" s="22" t="s">
@@ -4402,19 +4383,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75">
-      <c r="A28" s="15" t="s">
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="23" t="s">
         <v>288</v>
       </c>
       <c r="C28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="15" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="s">
         <v>289</v>
       </c>
       <c r="B29" s="22" t="s">
@@ -4424,124 +4405,177 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="15" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="B30" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>292</v>
       </c>
-      <c r="C30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
+      <c r="B31" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>294</v>
       </c>
-      <c r="C31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
+      <c r="B32" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="B32" s="25" t="s">
-        <v>296</v>
-      </c>
       <c r="C32" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="C33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="15"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="16"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="16"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="16"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="16"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="13"/>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="13"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="13"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="13"/>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="13"/>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="13"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="13"/>
-    </row>
-    <row r="56" spans="2:2" s="19" customFormat="1"/>
-    <row r="61" spans="2:2">
-      <c r="B61" s="13"/>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="13"/>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="13"/>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="13"/>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="13"/>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="13"/>
-    </row>
-    <row r="67" spans="2:2" s="19" customFormat="1"/>
-    <row r="82" spans="1:2">
-      <c r="A82" s="15"/>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="B85" s="18"/>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="20"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="20"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="20"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="20"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="20"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="20"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="20"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="20"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="20"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="22"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="22"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="22"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A49" s="21"/>
+      <c r="B49" s="22"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A50" s="21"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A51" s="21"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A53" s="21"/>
+    </row>
+    <row r="54" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="21"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+      <c r="Y54"/>
+      <c r="Z54"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A55" s="21"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A56" s="21"/>
+    </row>
+    <row r="65" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+      <c r="X65"/>
+      <c r="Y65"/>
+      <c r="Z65"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B67" s="21"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B68" s="21"/>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B69" s="21"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B70" s="21"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B71" s="21"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B72" s="21"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="20"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A151:A1048576 A1 A37:A38 A33:A34">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A151:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:A30">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A1001:A1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1001:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/objectLocator/OR_FASB.xlsx
+++ b/src/main/resources/objectLocator/OR_FASB.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asif/Documents/AMTtest/AMT-TestFrameWork/src/main/resources/objectLocator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSI\AMTAutomationRipo\AMT-TestFrameWork\src\main\resources\objectLocator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C428DFCD-73F7-3746-A9D0-F45126C24C89}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32720" windowHeight="20540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="915" windowWidth="32715" windowHeight="20535" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="FIGeneric" sheetId="38" r:id="rId1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="298">
   <si>
     <t>panelExportWidgetHeader</t>
   </si>
@@ -939,12 +938,15 @@
   <si>
     <t>ScheduleButton</t>
   </si>
+  <si>
+    <t>tbarCmdcancel_lease</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1174,17 +1176,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="80">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="79">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2250,22 +2242,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5" customWidth="1"/>
-    <col min="3" max="3" width="52.83203125" customWidth="1"/>
-    <col min="4" max="4" width="56.5" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="52.85546875" customWidth="1"/>
+    <col min="4" max="4" width="56.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2279,7 +2271,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -2291,7 +2283,7 @@
       </c>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2303,7 +2295,7 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -2315,7 +2307,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -2327,7 +2319,7 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
@@ -2335,7 +2327,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
@@ -2343,7 +2335,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -2354,7 +2346,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
@@ -2367,19 +2359,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="79" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="78" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="77" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="76" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="75" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2387,7 +2379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2395,16 +2387,16 @@
       <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="2" max="2" width="57.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="46.1640625" customWidth="1"/>
-    <col min="5" max="5" width="42.6640625" customWidth="1"/>
+    <col min="2" max="2" width="57.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="46.140625" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
@@ -2421,7 +2413,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -2430,7 +2422,7 @@
       </c>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -2442,7 +2434,7 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -2455,7 +2447,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -2467,7 +2459,7 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="12" t="s">
         <v>18</v>
       </c>
@@ -2478,7 +2470,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -2489,7 +2481,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="15" t="s">
         <v>71</v>
       </c>
@@ -2500,7 +2492,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="15" t="s">
         <v>72</v>
       </c>
@@ -2514,7 +2506,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="15" t="s">
         <v>75</v>
       </c>
@@ -2528,7 +2520,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="15" t="s">
         <v>77</v>
       </c>
@@ -2539,7 +2531,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="15" t="s">
         <v>84</v>
       </c>
@@ -2550,7 +2542,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="15" t="s">
         <v>85</v>
       </c>
@@ -2564,7 +2556,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="15" t="s">
         <v>86</v>
       </c>
@@ -2578,7 +2570,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="15" t="s">
         <v>87</v>
       </c>
@@ -2592,7 +2584,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="15" t="s">
         <v>88</v>
       </c>
@@ -2606,7 +2598,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="15" t="s">
         <v>89</v>
       </c>
@@ -2617,7 +2609,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="15" t="s">
         <v>91</v>
       </c>
@@ -2628,7 +2620,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="15" t="s">
         <v>93</v>
       </c>
@@ -2639,7 +2631,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="15" t="s">
         <v>94</v>
       </c>
@@ -2650,7 +2642,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="15" t="s">
         <v>96</v>
       </c>
@@ -2661,7 +2653,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="15" t="s">
         <v>98</v>
       </c>
@@ -2672,7 +2664,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="15" t="s">
         <v>128</v>
       </c>
@@ -2683,7 +2675,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="15" t="s">
         <v>102</v>
       </c>
@@ -2694,7 +2686,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="15" t="s">
         <v>106</v>
       </c>
@@ -2705,7 +2697,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="15" t="s">
         <v>105</v>
       </c>
@@ -2716,7 +2708,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="15" t="s">
         <v>108</v>
       </c>
@@ -2727,7 +2719,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="15" t="s">
         <v>110</v>
       </c>
@@ -2738,7 +2730,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="15" t="s">
         <v>112</v>
       </c>
@@ -2749,7 +2741,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="15" t="s">
         <v>114</v>
       </c>
@@ -2760,7 +2752,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="15" t="s">
         <v>116</v>
       </c>
@@ -2771,7 +2763,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="15" t="s">
         <v>118</v>
       </c>
@@ -2782,7 +2774,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="15" t="s">
         <v>119</v>
       </c>
@@ -2793,7 +2785,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="15" t="s">
         <v>121</v>
       </c>
@@ -2804,7 +2796,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="16" t="s">
         <v>122</v>
       </c>
@@ -2815,7 +2807,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="16" t="s">
         <v>123</v>
       </c>
@@ -2826,7 +2818,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="16" t="s">
         <v>126</v>
       </c>
@@ -2837,7 +2829,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="16" t="s">
         <v>127</v>
       </c>
@@ -2848,7 +2840,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>128</v>
       </c>
@@ -2859,7 +2851,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>129</v>
       </c>
@@ -2870,7 +2862,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="13" t="s">
         <v>130</v>
       </c>
@@ -2881,7 +2873,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="13" t="s">
         <v>132</v>
       </c>
@@ -2892,7 +2884,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="13" t="s">
         <v>134</v>
       </c>
@@ -2903,7 +2895,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>136</v>
       </c>
@@ -2914,7 +2906,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="13" t="s">
         <v>138</v>
       </c>
@@ -2925,7 +2917,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="13" t="s">
         <v>140</v>
       </c>
@@ -2936,7 +2928,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="13" t="s">
         <v>142</v>
       </c>
@@ -2947,7 +2939,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="13" t="s">
         <v>144</v>
       </c>
@@ -2958,7 +2950,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>145</v>
       </c>
@@ -2969,7 +2961,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>147</v>
       </c>
@@ -2980,7 +2972,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>149</v>
       </c>
@@ -2991,7 +2983,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>151</v>
       </c>
@@ -3002,7 +2994,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>153</v>
       </c>
@@ -3013,7 +3005,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>155</v>
       </c>
@@ -3024,7 +3016,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>157</v>
       </c>
@@ -3035,7 +3027,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" s="19" customFormat="1">
       <c r="A56" s="19" t="s">
         <v>159</v>
       </c>
@@ -3046,7 +3038,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>161</v>
       </c>
@@ -3057,7 +3049,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>163</v>
       </c>
@@ -3068,7 +3060,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>169</v>
       </c>
@@ -3082,7 +3074,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>170</v>
       </c>
@@ -3093,7 +3085,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>179</v>
       </c>
@@ -3104,7 +3096,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>144</v>
       </c>
@@ -3115,7 +3107,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>77</v>
       </c>
@@ -3126,7 +3118,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -3137,7 +3129,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>183</v>
       </c>
@@ -3148,7 +3140,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>185</v>
       </c>
@@ -3159,7 +3151,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" s="19" customFormat="1">
       <c r="A67" s="19" t="s">
         <v>187</v>
       </c>
@@ -3170,7 +3162,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>189</v>
       </c>
@@ -3181,7 +3173,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>191</v>
       </c>
@@ -3192,7 +3184,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>193</v>
       </c>
@@ -3203,7 +3195,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>195</v>
       </c>
@@ -3217,7 +3209,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>198</v>
       </c>
@@ -3228,7 +3220,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>199</v>
       </c>
@@ -3239,7 +3231,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>201</v>
       </c>
@@ -3250,7 +3242,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>203</v>
       </c>
@@ -3261,7 +3253,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>206</v>
       </c>
@@ -3272,7 +3264,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>208</v>
       </c>
@@ -3286,7 +3278,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>210</v>
       </c>
@@ -3300,7 +3292,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>212</v>
       </c>
@@ -3314,7 +3306,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>214</v>
       </c>
@@ -3325,7 +3317,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>216</v>
       </c>
@@ -3336,7 +3328,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5">
       <c r="A82" s="15" t="s">
         <v>218</v>
       </c>
@@ -3347,7 +3339,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>219</v>
       </c>
@@ -3361,7 +3353,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>221</v>
       </c>
@@ -3372,7 +3364,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>242</v>
       </c>
@@ -3385,13 +3377,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A151:A1048576 A1:A34 A37:A38">
-    <cfRule type="duplicateValues" dxfId="74" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151:A1048576">
-    <cfRule type="duplicateValues" dxfId="73" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82">
-    <cfRule type="duplicateValues" dxfId="72" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3399,7 +3391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3407,15 +3399,15 @@
       <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="3" width="47" customWidth="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="56.5" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="56.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3432,7 +3424,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
@@ -3444,7 +3436,7 @@
       </c>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="9" t="s">
         <v>21</v>
       </c>
@@ -3456,7 +3448,7 @@
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
@@ -3469,7 +3461,7 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
@@ -3484,7 +3476,7 @@
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
@@ -3495,7 +3487,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
@@ -3506,7 +3498,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
@@ -3517,7 +3509,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
@@ -3528,7 +3520,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="9" t="s">
         <v>27</v>
       </c>
@@ -3539,7 +3531,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
@@ -3550,7 +3542,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="10" t="s">
         <v>30</v>
       </c>
@@ -3561,7 +3553,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="7" t="s">
         <v>29</v>
       </c>
@@ -3572,7 +3564,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -3583,7 +3575,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -3594,7 +3586,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>224</v>
       </c>
@@ -3605,7 +3597,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>226</v>
       </c>
@@ -3616,7 +3608,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="17" t="s">
         <v>229</v>
       </c>
@@ -3627,7 +3619,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="17" t="s">
         <v>227</v>
       </c>
@@ -3638,7 +3630,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>232</v>
       </c>
@@ -3649,7 +3641,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>234</v>
       </c>
@@ -3660,7 +3652,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>236</v>
       </c>
@@ -3671,7 +3663,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>238</v>
       </c>
@@ -3682,7 +3674,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>136</v>
       </c>
@@ -3693,7 +3685,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>240</v>
       </c>
@@ -3704,195 +3696,195 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="B26" s="13"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:A17 A2 A7 A20:A1048576">
-    <cfRule type="duplicateValues" dxfId="71" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A17 A20:A1048576">
-    <cfRule type="duplicateValues" dxfId="70" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A17 A20:A1048576">
-    <cfRule type="duplicateValues" dxfId="69" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A17 A20:A1048576">
-    <cfRule type="duplicateValues" dxfId="68" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A17 A20:A1048576">
-    <cfRule type="duplicateValues" dxfId="67" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="66" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="65" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="64" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="63" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="62" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="61" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="60" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="59" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="58" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="57" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="56" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="55" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="54" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="53" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="52" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="51" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="50" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="49" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="48" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="47" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="46" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="45" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="44" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="43" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="42" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="41" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="40" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="39" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="38" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="37" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="36" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="35" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="34" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="33" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="32" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="31" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="30" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="29" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="28" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="27" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="26" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="25" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="24" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="23" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="22" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="21" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="20" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="19" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="17" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3900,7 +3892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -3908,16 +3900,16 @@
       <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.5" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="56.5" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="56.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3934,7 +3926,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" s="3" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3974,7 +3966,7 @@
       <c r="AG2"/>
       <c r="AH2"/>
     </row>
-    <row r="3" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" s="5" customFormat="1">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -4016,7 +4008,7 @@
       <c r="AG3"/>
       <c r="AH3"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -4028,31 +4020,31 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34">
       <c r="E5" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A4" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:A4"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="9" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="8" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="7" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="6" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A1048576 A1:A3">
-    <cfRule type="duplicateValues" dxfId="5" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="72"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -4060,24 +4052,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="85.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="85.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="24" t="s">
         <v>16</v>
       </c>
@@ -4094,7 +4086,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="20" t="s">
         <v>11</v>
       </c>
@@ -4105,7 +4097,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
@@ -4116,7 +4108,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="22" t="s">
         <v>18</v>
       </c>
@@ -4127,7 +4119,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="20" t="s">
         <v>14</v>
       </c>
@@ -4138,7 +4130,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>243</v>
       </c>
@@ -4149,7 +4141,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="20" t="s">
         <v>244</v>
       </c>
@@ -4160,7 +4152,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>246</v>
       </c>
@@ -4171,7 +4163,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>248</v>
       </c>
@@ -4182,7 +4174,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>250</v>
       </c>
@@ -4193,7 +4185,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>252</v>
       </c>
@@ -4204,7 +4196,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>254</v>
       </c>
@@ -4215,7 +4207,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>256</v>
       </c>
@@ -4226,7 +4218,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>258</v>
       </c>
@@ -4237,7 +4229,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>260</v>
       </c>
@@ -4248,7 +4240,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>262</v>
       </c>
@@ -4259,7 +4251,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>264</v>
       </c>
@@ -4270,7 +4262,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>266</v>
       </c>
@@ -4281,7 +4273,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>268</v>
       </c>
@@ -4292,7 +4284,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>270</v>
       </c>
@@ -4303,7 +4295,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>272</v>
       </c>
@@ -4314,7 +4306,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>274</v>
       </c>
@@ -4328,7 +4320,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>277</v>
       </c>
@@ -4339,7 +4331,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>279</v>
       </c>
@@ -4350,7 +4342,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>281</v>
       </c>
@@ -4361,7 +4353,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>283</v>
       </c>
@@ -4372,7 +4364,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="20" t="s">
         <v>285</v>
       </c>
@@ -4383,7 +4375,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="15.75">
       <c r="A28" s="20" t="s">
         <v>287</v>
       </c>
@@ -4394,7 +4386,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="20" t="s">
         <v>289</v>
       </c>
@@ -4405,7 +4397,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="20" t="s">
         <v>296</v>
       </c>
@@ -4416,7 +4408,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>292</v>
       </c>
@@ -4427,7 +4419,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>294</v>
       </c>
@@ -4438,56 +4430,67 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>226</v>
+      </c>
+      <c r="B33" t="s">
+        <v>297</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="20"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="20"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="20"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="20"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="20"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="20"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="20"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="20"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="20"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="B43" s="22"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="B45" s="22"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="B48" s="22"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26">
       <c r="A49" s="21"/>
       <c r="B49" s="22"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26">
       <c r="A50" s="21"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26">
       <c r="A51" s="21"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26">
       <c r="A53" s="21"/>
     </row>
-    <row r="54" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" s="19" customFormat="1">
       <c r="A54" s="21"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -4515,13 +4518,13 @@
       <c r="Y54"/>
       <c r="Z54"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26">
       <c r="A55" s="21"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26">
       <c r="A56" s="21"/>
     </row>
-    <row r="65" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" s="19" customFormat="1">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -4549,33 +4552,33 @@
       <c r="Y65"/>
       <c r="Z65"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26">
       <c r="B67" s="21"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26">
       <c r="B68" s="21"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26">
       <c r="B69" s="21"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26">
       <c r="B70" s="21"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26">
       <c r="B71" s="21"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26">
       <c r="B72" s="21"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1">
       <c r="A90" s="20"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1001:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1001:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/objectLocator/OR_FASB.xlsx
+++ b/src/main/resources/objectLocator/OR_FASB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asif/Documents/AMTtest/AMT-TestFrameWork/src/main/resources/objectLocator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asif/Documents/AMT-TestFrameWork/src/main/resources/objectLocator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C428DFCD-73F7-3746-A9D0-F45126C24C89}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE8B2D4-EFA0-D34A-879C-B5A48C1885D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="32720" windowHeight="20540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -862,9 +862,6 @@
     <t>ImputedInterestRateValue</t>
   </si>
   <si>
-    <t>//*[@id="imputedper"]</t>
-  </si>
-  <si>
     <t>Display</t>
   </si>
   <si>
@@ -938,6 +935,9 @@
   </si>
   <si>
     <t>ScheduleButton</t>
+  </si>
+  <si>
+    <t>//*[@id="imputedInterestRate"]</t>
   </si>
 </sst>
 </file>
@@ -1174,17 +1174,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="80">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="79">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2367,19 +2357,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="79" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="78" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="77" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="76" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="75" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3385,13 +3375,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A151:A1048576 A1:A34 A37:A38">
-    <cfRule type="duplicateValues" dxfId="74" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A151:A1048576">
-    <cfRule type="duplicateValues" dxfId="73" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82">
-    <cfRule type="duplicateValues" dxfId="72" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3709,190 +3699,190 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:A17 A2 A7 A20:A1048576">
-    <cfRule type="duplicateValues" dxfId="71" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A17 A20:A1048576">
-    <cfRule type="duplicateValues" dxfId="70" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A17 A20:A1048576">
-    <cfRule type="duplicateValues" dxfId="69" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A17 A20:A1048576">
-    <cfRule type="duplicateValues" dxfId="68" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A17 A20:A1048576">
-    <cfRule type="duplicateValues" dxfId="67" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="66" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="65" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="64" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="63" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="62" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="61" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="60" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="59" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="58" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="57" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="56" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="55" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="54" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="53" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="52" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="51" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="50" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="49" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="48" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="47" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="46" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="45" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="44" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="43" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="42" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="41" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="40" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="39" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="38" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="37" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="36" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="35" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="34" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="33" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="32" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="31" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="30" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="29" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="28" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="27" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="26" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="25" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="24" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="23" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="22" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="21" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="20" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="19" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="17" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4034,25 +4024,25 @@
   </sheetData>
   <autoFilter ref="A1:A4" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="9" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="8" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="7" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="6" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A1048576 A1:A3">
-    <cfRule type="duplicateValues" dxfId="5" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="72"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -4065,7 +4055,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4297,7 +4287,7 @@
         <v>270</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="C20" t="s">
         <v>37</v>
@@ -4305,10 +4295,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>271</v>
+      </c>
+      <c r="B21" s="22" t="s">
         <v>272</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>273</v>
       </c>
       <c r="C21" t="s">
         <v>37</v>
@@ -4316,24 +4306,24 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>273</v>
+      </c>
+      <c r="B22" t="s">
         <v>274</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="22" t="s">
         <v>275</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>276</v>
+      </c>
+      <c r="B23" s="22" t="s">
         <v>277</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>278</v>
       </c>
       <c r="C23" t="s">
         <v>37</v>
@@ -4341,10 +4331,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>278</v>
+      </c>
+      <c r="B24" s="22" t="s">
         <v>279</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>280</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
@@ -4352,10 +4342,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>280</v>
+      </c>
+      <c r="B25" s="22" t="s">
         <v>281</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>282</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
@@ -4363,10 +4353,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>282</v>
+      </c>
+      <c r="B26" s="22" t="s">
         <v>283</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>284</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
@@ -4374,10 +4364,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="B27" s="22" t="s">
         <v>285</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>286</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
@@ -4385,10 +4375,10 @@
     </row>
     <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="B28" s="23" t="s">
         <v>287</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>288</v>
       </c>
       <c r="C28" t="s">
         <v>37</v>
@@ -4396,10 +4386,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="B29" s="22" t="s">
         <v>289</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>290</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
@@ -4407,10 +4397,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -4418,10 +4408,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>291</v>
+      </c>
+      <c r="B31" s="22" t="s">
         <v>292</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>293</v>
       </c>
       <c r="C31" t="s">
         <v>37</v>
@@ -4429,10 +4419,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>293</v>
+      </c>
+      <c r="B32" s="22" t="s">
         <v>294</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>295</v>
       </c>
       <c r="C32" t="s">
         <v>37</v>
@@ -4572,10 +4562,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1001:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1001:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/objectLocator/OR_FASB.xlsx
+++ b/src/main/resources/objectLocator/OR_FASB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asif/Documents/AMT-TestFrameWork/src/main/resources/objectLocator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE8B2D4-EFA0-D34A-879C-B5A48C1885D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B76590-A0E4-9B41-8298-68345A7360CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32720" windowHeight="20540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32820" windowHeight="20540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIGeneric" sheetId="38" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="299">
   <si>
     <t>panelExportWidgetHeader</t>
   </si>
@@ -874,9 +874,6 @@
     <t>//*[@aria-owns='DisplayType_listbox']</t>
   </si>
   <si>
-    <t>//*[@id="DisplayType-list"]/</t>
-  </si>
-  <si>
     <t>DisplayLongTermLiabilities</t>
   </si>
   <si>
@@ -938,13 +935,22 @@
   </si>
   <si>
     <t>//*[@id="imputedInterestRate"]</t>
+  </si>
+  <si>
+    <t>DisplayCheckListbox</t>
+  </si>
+  <si>
+    <t>//*[@id="DisplayType-list"]</t>
+  </si>
+  <si>
+    <t>//*[@id="DisplayType_listbox"]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1029,6 +1035,12 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1112,7 +1124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1170,6 +1182,7 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4051,11 +4064,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Z90"/>
+  <dimension ref="A1:Z91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4064,7 +4077,7 @@
     <col min="2" max="2" width="85.1640625" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -4287,7 +4300,7 @@
         <v>270</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C20" t="s">
         <v>37</v>
@@ -4315,26 +4328,29 @@
         <v>37</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>276</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>277</v>
+        <v>296</v>
+      </c>
+      <c r="B23" t="s">
+        <v>274</v>
       </c>
       <c r="C23" t="s">
         <v>37</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
@@ -4342,54 +4358,55 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
       </c>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>279</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>281</v>
+      </c>
+      <c r="B27" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
+      <c r="B28" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="C27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
+      <c r="B29" s="23" t="s">
         <v>286</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="C28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>289</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
@@ -4397,21 +4414,21 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>291</v>
+      <c r="A31" s="20" t="s">
+        <v>294</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C31" t="s">
         <v>37</v>
@@ -4419,128 +4436,136 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>290</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>292</v>
+      </c>
+      <c r="B33" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="B32" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="C32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="20"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="20"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="20"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="20"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="20"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="20"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="20"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="20"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B43" s="22"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B45" s="22"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B48" s="22"/>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="20"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B44" s="22"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B46" s="22"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
       <c r="B49" s="22"/>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
+      <c r="B50" s="22"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-    </row>
-    <row r="54" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A52" s="21"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54"/>
-      <c r="M54"/>
-      <c r="N54"/>
-      <c r="O54"/>
-      <c r="P54"/>
-      <c r="Q54"/>
-      <c r="R54"/>
-      <c r="S54"/>
-      <c r="T54"/>
-      <c r="U54"/>
-      <c r="V54"/>
-      <c r="W54"/>
-      <c r="X54"/>
-      <c r="Y54"/>
-      <c r="Z54"/>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
     </row>
-    <row r="65" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65"/>
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="D65"/>
-      <c r="E65"/>
-      <c r="F65"/>
-      <c r="G65"/>
-      <c r="H65"/>
-      <c r="I65"/>
-      <c r="J65"/>
-      <c r="K65"/>
-      <c r="L65"/>
-      <c r="M65"/>
-      <c r="N65"/>
-      <c r="O65"/>
-      <c r="P65"/>
-      <c r="Q65"/>
-      <c r="R65"/>
-      <c r="S65"/>
-      <c r="T65"/>
-      <c r="U65"/>
-      <c r="V65"/>
-      <c r="W65"/>
-      <c r="X65"/>
-      <c r="Y65"/>
-      <c r="Z65"/>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B67" s="21"/>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A57" s="21"/>
+    </row>
+    <row r="66" spans="1:26" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66"/>
+      <c r="Y66"/>
+      <c r="Z66"/>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B68" s="21"/>
@@ -4557,14 +4582,17 @@
     <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B72" s="21"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="20"/>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B73" s="21"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="20"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1001:A1048576">
+  <conditionalFormatting sqref="A1002:A1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1001:A1048576">
+  <conditionalFormatting sqref="A1002:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
